--- a/Disincorporations Repository/disincs2010s.xlsx
+++ b/Disincorporations Repository/disincs2010s.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/23d03426a47caebe/3YP - Disincorporations/Disincorporations Repository/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="104" documentId="8_{84200984-B881-4A4A-BFD4-77E09D0A6A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5914C32D-7CA3-41AF-94D9-DB0E75CBCD99}"/>
+  <xr:revisionPtr revIDLastSave="568" documentId="8_{84200984-B881-4A4A-BFD4-77E09D0A6A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7D4FC15-F76E-417D-A28D-DFD9069DE86A}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="1008" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="disincs2010s" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="116">
   <si>
     <t>USPS</t>
   </si>
@@ -338,6 +338,48 @@
   </si>
   <si>
     <t>yes_20220307</t>
+  </si>
+  <si>
+    <t>yes_20220421</t>
+  </si>
+  <si>
+    <t>29XXXXX</t>
+  </si>
+  <si>
+    <t>Mackenzie</t>
+  </si>
+  <si>
+    <t>turnout</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>pop_dissolved</t>
+  </si>
+  <si>
+    <t>turnout_pop</t>
+  </si>
+  <si>
+    <t>registered</t>
+  </si>
+  <si>
+    <t>Uplands Park</t>
+  </si>
+  <si>
+    <t>threshold</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>vote_difference</t>
+  </si>
+  <si>
+    <t>39XXXXX</t>
+  </si>
+  <si>
+    <t>Newtonsville</t>
   </si>
 </sst>
 </file>
@@ -1178,11 +1220,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J70"/>
+  <dimension ref="A1:Q79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M60" sqref="M60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,10 +1234,14 @@
     <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="12.42578125" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>97</v>
       </c>
@@ -1224,10 +1270,31 @@
         <v>99</v>
       </c>
       <c r="J1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>109</v>
+      </c>
+      <c r="O1" t="s">
+        <v>107</v>
+      </c>
+      <c r="P1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -1260,8 +1327,33 @@
         <f>IF(F2 = TRUE,(G2)/(G2+H2) - (H2)/(G2+H2), "NA")</f>
         <v>NA</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <v>0.5</v>
+      </c>
+      <c r="L2" t="str">
+        <f t="shared" ref="L2:L3" si="0">IF(I2&lt;&gt;"NA",IF(I2&gt;K2,"YES","NO"),"NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="M2" t="str">
+        <f t="shared" ref="M2:M3" si="1">IF(F2=TRUE,I2-K2,"NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="N2" t="s">
+        <v>106</v>
+      </c>
+      <c r="O2" t="s">
+        <v>106</v>
+      </c>
+      <c r="P2" t="str">
+        <f t="shared" ref="P2:P3" si="2">IF(N2&lt;&gt;"NA",(G2+H2)/N2, "NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="Q2" t="str">
+        <f t="shared" ref="Q2:Q5" si="3">IFERROR((G2+H2)/O2, "NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>101</v>
       </c>
@@ -1287,15 +1379,40 @@
         <v>0</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I66" si="0">IF(F3 = TRUE, G3/(G3+H3), "NA")</f>
+        <f t="shared" ref="I3:I75" si="4">IF(F3 = TRUE, G3/(G3+H3), "NA")</f>
         <v>NA</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J66" si="1">IF(F3 = TRUE,(G3)/(G3+H3) - (H3)/(G3+H3), "NA")</f>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J3:J75" si="5">IF(F3 = TRUE,(G3)/(G3+H3) - (H3)/(G3+H3), "NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="K3">
+        <v>0.5</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" si="0"/>
+        <v>NA</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" si="1"/>
+        <v>NA</v>
+      </c>
+      <c r="N3" t="s">
+        <v>106</v>
+      </c>
+      <c r="O3" t="s">
+        <v>106</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+      <c r="Q3" t="str">
+        <f t="shared" si="3"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>101</v>
       </c>
@@ -1321,15 +1438,40 @@
         <v>29</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.82424242424242422</v>
       </c>
       <c r="J4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.64848484848484844</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>0.5</v>
+      </c>
+      <c r="L4" t="str">
+        <f>IF(I4&lt;&gt;"NA",IF(I4&gt;K4,"YES","NO"),"NA")</f>
+        <v>YES</v>
+      </c>
+      <c r="M4">
+        <f>IF(F4=TRUE,I4-K4,"NA")</f>
+        <v>0.32424242424242422</v>
+      </c>
+      <c r="N4">
+        <v>402</v>
+      </c>
+      <c r="O4">
+        <v>600</v>
+      </c>
+      <c r="P4">
+        <f>IF(N4&lt;&gt;"NA",(G4+H4)/N4, "NA")</f>
+        <v>0.41044776119402987</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="3"/>
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -1355,15 +1497,40 @@
         <v>46</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.55339805825242716</v>
       </c>
       <c r="J5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.10679611650485432</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>0.5</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" ref="L5:L75" si="6">IF(I5&lt;&gt;"NA",IF(I5&gt;K5,"YES","NO"),"NA")</f>
+        <v>YES</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M75" si="7">IF(F5=TRUE,I5-K5,"NA")</f>
+        <v>5.3398058252427161E-2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>106</v>
+      </c>
+      <c r="O5" t="s">
+        <v>106</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" ref="P5:P76" si="8">IF(N5&lt;&gt;"NA",(G5+H5)/N5, "NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" si="3"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>101</v>
       </c>
@@ -1389,15 +1556,40 @@
         <v>18</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.76</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.52</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <v>0.5</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="6"/>
+        <v>YES</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="7"/>
+        <v>0.26</v>
+      </c>
+      <c r="N6" t="s">
+        <v>106</v>
+      </c>
+      <c r="O6">
+        <v>250</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="Q6">
+        <f>IFERROR((G6+H6)/O6, "NA")</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>101</v>
       </c>
@@ -1423,15 +1615,40 @@
         <v>0</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>NA</v>
+      </c>
+      <c r="K7">
+        <v>0.5</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="6"/>
+        <v>NA</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="N7" t="s">
+        <v>106</v>
+      </c>
+      <c r="O7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" ref="Q7:Q78" si="9">IFERROR((G7+H7)/O7, "NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>101</v>
       </c>
@@ -1457,15 +1674,40 @@
         <v>7</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.82499999999999996</v>
       </c>
       <c r="J8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.64999999999999991</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <v>0.5</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="6"/>
+        <v>YES</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="7"/>
+        <v>0.32499999999999996</v>
+      </c>
+      <c r="N8" t="s">
+        <v>106</v>
+      </c>
+      <c r="O8">
+        <v>100</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="9"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>101</v>
       </c>
@@ -1491,15 +1733,40 @@
         <v>0</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>NA</v>
+      </c>
+      <c r="K9">
+        <v>0.5</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="6"/>
+        <v>NA</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="N9" t="s">
+        <v>106</v>
+      </c>
+      <c r="O9" t="s">
+        <v>106</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>101</v>
       </c>
@@ -1518,22 +1785,47 @@
       <c r="F10" t="b">
         <v>0</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+      <c r="G10" t="s">
+        <v>106</v>
+      </c>
+      <c r="H10" t="s">
+        <v>106</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>NA</v>
+      </c>
+      <c r="K10">
+        <v>0.5</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="6"/>
+        <v>NA</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="N10" t="s">
+        <v>106</v>
+      </c>
+      <c r="O10">
+        <v>44</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>101</v>
       </c>
@@ -1559,15 +1851,40 @@
         <v>31</v>
       </c>
       <c r="I11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.50793650793650791</v>
       </c>
       <c r="J11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.5873015873015872E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <v>0.5</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="6"/>
+        <v>YES</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="7"/>
+        <v>7.9365079365079083E-3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>106</v>
+      </c>
+      <c r="O11">
+        <v>98</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="9"/>
+        <v>0.6428571428571429</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>101</v>
       </c>
@@ -1593,15 +1910,40 @@
         <v>1</v>
       </c>
       <c r="I12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
       <c r="J12">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="K12">
+        <v>0.5</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="6"/>
+        <v>YES</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="7"/>
+        <v>0.25</v>
+      </c>
+      <c r="N12" t="s">
+        <v>106</v>
+      </c>
+      <c r="O12">
+        <v>28</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="9"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>101</v>
       </c>
@@ -1627,15 +1969,40 @@
         <v>0</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>NA</v>
+      </c>
+      <c r="K13">
+        <v>0.5</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="6"/>
+        <v>NA</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="N13" t="s">
+        <v>106</v>
+      </c>
+      <c r="O13" t="s">
+        <v>106</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>101</v>
       </c>
@@ -1661,15 +2028,40 @@
         <v>0</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>NA</v>
+      </c>
+      <c r="K14">
+        <v>0.5</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="6"/>
+        <v>NA</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="N14" t="s">
+        <v>106</v>
+      </c>
+      <c r="O14" t="s">
+        <v>106</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>101</v>
       </c>
@@ -1695,15 +2087,40 @@
         <v>0</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>NA</v>
+      </c>
+      <c r="K15">
+        <v>0.5</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="6"/>
+        <v>NA</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="N15" t="s">
+        <v>106</v>
+      </c>
+      <c r="O15" t="s">
+        <v>106</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>101</v>
       </c>
@@ -1729,15 +2146,40 @@
         <v>0</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>NA</v>
+      </c>
+      <c r="K16">
+        <v>0.6</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="6"/>
+        <v>NA</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="N16" t="s">
+        <v>106</v>
+      </c>
+      <c r="O16" t="s">
+        <v>106</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>101</v>
       </c>
@@ -1763,15 +2205,40 @@
         <v>6</v>
       </c>
       <c r="I17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="J17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.64705882352941169</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>0.6</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="6"/>
+        <v>YES</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="7"/>
+        <v>0.22352941176470587</v>
+      </c>
+      <c r="N17" t="s">
+        <v>106</v>
+      </c>
+      <c r="O17">
+        <v>124</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="9"/>
+        <v>0.27419354838709675</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>101</v>
       </c>
@@ -1797,15 +2264,40 @@
         <v>0</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>NA</v>
+      </c>
+      <c r="K18">
+        <v>0.6</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="6"/>
+        <v>NA</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="N18">
+        <v>18</v>
+      </c>
+      <c r="O18">
+        <v>50</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>101</v>
       </c>
@@ -1831,15 +2323,40 @@
         <v>0</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>NA</v>
+      </c>
+      <c r="K19">
+        <v>0.6</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="6"/>
+        <v>NA</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="N19" t="s">
+        <v>106</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>101</v>
       </c>
@@ -1865,1115 +2382,3324 @@
         <v>28</v>
       </c>
       <c r="I20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.69230769230769229</v>
       </c>
       <c r="J20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.38461538461538458</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>0.6</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="6"/>
+        <v>YES</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="7"/>
+        <v>9.2307692307692313E-2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>106</v>
+      </c>
+      <c r="O20">
+        <v>244</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="9"/>
+        <v>0.37295081967213117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>102</v>
+      </c>
       <c r="B21" t="s">
         <v>26</v>
       </c>
-      <c r="C21">
-        <v>2960410</v>
+      <c r="C21" t="s">
+        <v>103</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="E21">
         <v>2018</v>
       </c>
-      <c r="I21" t="str">
-        <f t="shared" si="0"/>
-        <v>NA</v>
-      </c>
-      <c r="J21" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>18</v>
+      </c>
+      <c r="H21">
+        <v>15</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="4"/>
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="5"/>
+        <v>9.0909090909090884E-2</v>
+      </c>
+      <c r="K21">
+        <v>0.6</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="7"/>
+        <v>-5.4545454545454564E-2</v>
+      </c>
+      <c r="N21">
+        <v>94</v>
+      </c>
+      <c r="O21">
+        <v>134</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="8"/>
+        <v>0.35106382978723405</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="9"/>
+        <v>0.2462686567164179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>102</v>
+      </c>
       <c r="B22" t="s">
         <v>26</v>
       </c>
       <c r="C22">
-        <v>2960824</v>
+        <v>2960410</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E22">
-        <v>2014</v>
+        <v>2018</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>NA</v>
+      </c>
+      <c r="K22">
+        <v>0.6</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="6"/>
+        <v>NA</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="N22" t="s">
+        <v>106</v>
+      </c>
+      <c r="O22">
+        <v>40</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>102</v>
+      </c>
       <c r="B23" t="s">
         <v>26</v>
       </c>
       <c r="C23">
-        <v>2964370</v>
+        <v>2960824</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E23">
-        <v>2018</v>
+        <v>2014</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>NA</v>
+      </c>
+      <c r="K23">
+        <v>0.6</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="6"/>
+        <v>NA</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="N23" t="s">
+        <v>106</v>
+      </c>
+      <c r="O23" t="s">
+        <v>106</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="Q23" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>102</v>
+      </c>
       <c r="B24" t="s">
         <v>26</v>
       </c>
       <c r="C24">
+        <v>2964370</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24">
+        <v>2011</v>
+      </c>
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>345</v>
+      </c>
+      <c r="H24">
+        <v>128</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="4"/>
+        <v>0.7293868921775899</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="5"/>
+        <v>0.45877378435517974</v>
+      </c>
+      <c r="K24">
+        <v>0.6</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="6"/>
+        <v>YES</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="7"/>
+        <v>0.12938689217758992</v>
+      </c>
+      <c r="N24">
+        <v>802</v>
+      </c>
+      <c r="O24">
+        <v>1337</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="8"/>
+        <v>0.58977556109725682</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="9"/>
+        <v>0.3537771129394166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25">
+        <v>2013</v>
+      </c>
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>73</v>
+      </c>
+      <c r="H25">
+        <v>70</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="4"/>
+        <v>0.51048951048951052</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="5"/>
+        <v>2.097902097902099E-2</v>
+      </c>
+      <c r="K25">
+        <v>0.6</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="7"/>
+        <v>-8.9510489510489455E-2</v>
+      </c>
+      <c r="N25">
+        <v>300</v>
+      </c>
+      <c r="O25">
+        <v>445</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="8"/>
+        <v>0.47666666666666668</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="9"/>
+        <v>0.32134831460674157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
         <v>2981430</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D26" t="s">
         <v>35</v>
       </c>
-      <c r="E24">
+      <c r="E26">
         <v>2017</v>
       </c>
-      <c r="I24" t="str">
-        <f t="shared" si="0"/>
-        <v>NA</v>
-      </c>
-      <c r="J24" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="4"/>
+        <v>NA</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="5"/>
+        <v>NA</v>
+      </c>
+      <c r="K26">
+        <v>0.6</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="6"/>
+        <v>NA</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="N26" t="s">
+        <v>106</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="Q26" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" t="s">
         <v>36</v>
       </c>
-      <c r="C25">
+      <c r="C27">
         <v>3010000</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D27" t="s">
         <v>37</v>
       </c>
-      <c r="E25">
+      <c r="E27">
         <v>2019</v>
       </c>
-      <c r="I25" t="str">
-        <f t="shared" si="0"/>
-        <v>NA</v>
-      </c>
-      <c r="J25" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="4"/>
+        <v>NA</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="5"/>
+        <v>NA</v>
+      </c>
+      <c r="K27">
+        <v>0.5</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="6"/>
+        <v>NA</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="N27" t="s">
+        <v>106</v>
+      </c>
+      <c r="O27" t="s">
+        <v>106</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="Q27" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" t="s">
         <v>38</v>
       </c>
-      <c r="C26">
+      <c r="C28">
         <v>3144385</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D28" t="s">
         <v>39</v>
       </c>
-      <c r="E26">
+      <c r="E28">
         <v>2016</v>
       </c>
-      <c r="I26" t="str">
-        <f t="shared" si="0"/>
-        <v>NA</v>
-      </c>
-      <c r="J26" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27">
-        <v>3601550</v>
-      </c>
-      <c r="D27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27">
-        <v>2016</v>
-      </c>
-      <c r="I27" t="str">
-        <f t="shared" si="0"/>
-        <v>NA</v>
-      </c>
-      <c r="J27" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28">
-        <v>3604528</v>
-      </c>
-      <c r="D28" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28">
-        <v>2018</v>
-      </c>
-      <c r="I28" t="str">
-        <f t="shared" si="0"/>
-        <v>NA</v>
-      </c>
-      <c r="J28" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>17</v>
+      </c>
+      <c r="H28">
+        <v>16</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="4"/>
+        <v>0.51515151515151514</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="5"/>
+        <v>3.0303030303030276E-2</v>
+      </c>
+      <c r="K28">
+        <v>0.5</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="6"/>
+        <v>YES</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="7"/>
+        <v>1.5151515151515138E-2</v>
+      </c>
+      <c r="N28">
+        <v>33</v>
+      </c>
+      <c r="O28">
+        <v>33</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>102</v>
+      </c>
       <c r="B29" t="s">
         <v>40</v>
       </c>
       <c r="C29">
-        <v>3608169</v>
+        <v>3601550</v>
       </c>
       <c r="D29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E29">
-        <v>2015</v>
-      </c>
-      <c r="I29" t="str">
-        <f t="shared" si="0"/>
-        <v>NA</v>
-      </c>
-      <c r="J29" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2016</v>
+      </c>
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>80</v>
+      </c>
+      <c r="H29">
+        <v>74</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="4"/>
+        <v>0.51948051948051943</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="5"/>
+        <v>3.8961038961038919E-2</v>
+      </c>
+      <c r="K29">
+        <v>0.5</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="6"/>
+        <v>YES</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="7"/>
+        <v>1.9480519480519431E-2</v>
+      </c>
+      <c r="N29">
+        <v>237</v>
+      </c>
+      <c r="O29">
+        <v>350</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="8"/>
+        <v>0.64978902953586493</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="9"/>
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>102</v>
+      </c>
       <c r="B30" t="s">
         <v>40</v>
       </c>
       <c r="C30">
-        <v>3615187</v>
+        <v>3604528</v>
       </c>
       <c r="D30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E30">
-        <v>2020</v>
-      </c>
-      <c r="I30" t="str">
-        <f t="shared" si="0"/>
-        <v>NA</v>
-      </c>
-      <c r="J30" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2018</v>
+      </c>
+      <c r="F30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>54</v>
+      </c>
+      <c r="H30">
+        <v>12</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="4"/>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="5"/>
+        <v>0.63636363636363646</v>
+      </c>
+      <c r="K30">
+        <v>0.5</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="6"/>
+        <v>YES</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="7"/>
+        <v>0.31818181818181823</v>
+      </c>
+      <c r="N30" t="s">
+        <v>106</v>
+      </c>
+      <c r="O30">
+        <v>281</v>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="9"/>
+        <v>0.23487544483985764</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>102</v>
+      </c>
       <c r="B31" t="s">
         <v>40</v>
       </c>
       <c r="C31">
-        <v>3622843</v>
+        <v>3608169</v>
       </c>
       <c r="D31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E31">
-        <v>2013</v>
-      </c>
-      <c r="I31" t="str">
-        <f t="shared" si="0"/>
-        <v>NA</v>
-      </c>
-      <c r="J31" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2015</v>
+      </c>
+      <c r="F31" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>40</v>
+      </c>
+      <c r="H31">
+        <v>8</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="4"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="5"/>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="K31">
+        <v>0.5</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="6"/>
+        <v>YES</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="7"/>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="N31">
+        <v>249</v>
+      </c>
+      <c r="O31">
+        <v>570</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="8"/>
+        <v>0.19277108433734941</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="9"/>
+        <v>8.4210526315789472E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>102</v>
+      </c>
       <c r="B32" t="s">
         <v>40</v>
       </c>
       <c r="C32">
-        <v>3623635</v>
+        <v>3615187</v>
       </c>
       <c r="D32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E32">
-        <v>2014</v>
-      </c>
-      <c r="I32" t="str">
-        <f t="shared" si="0"/>
-        <v>NA</v>
-      </c>
-      <c r="J32" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+        <v>2020</v>
+      </c>
+      <c r="F32" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>70</v>
+      </c>
+      <c r="H32">
+        <v>32</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="4"/>
+        <v>0.68627450980392157</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="5"/>
+        <v>0.37254901960784315</v>
+      </c>
+      <c r="K32">
+        <v>0.5</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="6"/>
+        <v>YES</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="7"/>
+        <v>0.18627450980392157</v>
+      </c>
+      <c r="N32" t="s">
+        <v>106</v>
+      </c>
+      <c r="O32">
+        <v>440</v>
+      </c>
+      <c r="P32" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="9"/>
+        <v>0.23181818181818181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>102</v>
+      </c>
       <c r="B33" t="s">
         <v>40</v>
       </c>
       <c r="C33">
-        <v>3626649</v>
+        <v>3622843</v>
       </c>
       <c r="D33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E33">
-        <v>2017</v>
-      </c>
-      <c r="I33" t="str">
-        <f t="shared" si="0"/>
-        <v>NA</v>
-      </c>
-      <c r="J33" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+        <v>2013</v>
+      </c>
+      <c r="F33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>57</v>
+      </c>
+      <c r="H33">
+        <v>11</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="4"/>
+        <v>0.83823529411764708</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="5"/>
+        <v>0.67647058823529416</v>
+      </c>
+      <c r="K33">
+        <v>0.5</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="6"/>
+        <v>YES</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="7"/>
+        <v>0.33823529411764708</v>
+      </c>
+      <c r="N33" t="s">
+        <v>106</v>
+      </c>
+      <c r="O33">
+        <v>629</v>
+      </c>
+      <c r="P33" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="9"/>
+        <v>0.10810810810810811</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>102</v>
+      </c>
       <c r="B34" t="s">
         <v>40</v>
       </c>
       <c r="C34">
-        <v>3634165</v>
+        <v>3623635</v>
       </c>
       <c r="D34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E34">
-        <v>2018</v>
-      </c>
-      <c r="I34" t="str">
-        <f t="shared" si="0"/>
-        <v>NA</v>
-      </c>
-      <c r="J34" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+        <v>2011</v>
+      </c>
+      <c r="F34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>55</v>
+      </c>
+      <c r="H34">
+        <v>9</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="4"/>
+        <v>0.859375</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="5"/>
+        <v>0.71875</v>
+      </c>
+      <c r="K34">
+        <v>0.5</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="6"/>
+        <v>YES</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="7"/>
+        <v>0.359375</v>
+      </c>
+      <c r="N34" t="s">
+        <v>106</v>
+      </c>
+      <c r="O34">
+        <v>438</v>
+      </c>
+      <c r="P34" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="9"/>
+        <v>0.14611872146118721</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>102</v>
+      </c>
       <c r="B35" t="s">
         <v>40</v>
       </c>
       <c r="C35">
-        <v>3634220</v>
+        <v>3626649</v>
       </c>
       <c r="D35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E35">
-        <v>2018</v>
-      </c>
-      <c r="I35" t="str">
-        <f t="shared" si="0"/>
-        <v>NA</v>
-      </c>
-      <c r="J35" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+        <v>2017</v>
+      </c>
+      <c r="F35" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>137</v>
+      </c>
+      <c r="H35">
+        <v>97</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="4"/>
+        <v>0.5854700854700855</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="5"/>
+        <v>0.17094017094017094</v>
+      </c>
+      <c r="K35">
+        <v>0.5</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="6"/>
+        <v>YES</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="7"/>
+        <v>8.54700854700855E-2</v>
+      </c>
+      <c r="N35">
+        <v>425</v>
+      </c>
+      <c r="O35">
+        <v>697</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="8"/>
+        <v>0.5505882352941176</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="9"/>
+        <v>0.33572453371592542</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>102</v>
+      </c>
       <c r="B36" t="s">
         <v>40</v>
       </c>
       <c r="C36">
-        <v>3639089</v>
+        <v>3634165</v>
       </c>
       <c r="D36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E36">
-        <v>2017</v>
-      </c>
-      <c r="I36" t="str">
-        <f t="shared" si="0"/>
-        <v>NA</v>
-      </c>
-      <c r="J36" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+        <v>2018</v>
+      </c>
+      <c r="F36" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>95</v>
+      </c>
+      <c r="H36">
+        <v>15</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="4"/>
+        <v>0.86363636363636365</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="5"/>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="K36">
+        <v>0.5</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="6"/>
+        <v>YES</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="7"/>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="N36">
+        <v>215</v>
+      </c>
+      <c r="O36">
+        <v>400</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="8"/>
+        <v>0.51162790697674421</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="9"/>
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>102</v>
+      </c>
       <c r="B37" t="s">
         <v>40</v>
       </c>
       <c r="C37">
-        <v>3642378</v>
+        <v>3634220</v>
       </c>
       <c r="D37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E37">
-        <v>2013</v>
-      </c>
-      <c r="I37" t="str">
-        <f t="shared" si="0"/>
-        <v>NA</v>
-      </c>
-      <c r="J37" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+        <v>2018</v>
+      </c>
+      <c r="F37" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>19</v>
+      </c>
+      <c r="H37">
+        <v>9</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="4"/>
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="5"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="K37">
+        <v>0.5</v>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="6"/>
+        <v>YES</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="7"/>
+        <v>0.1785714285714286</v>
+      </c>
+      <c r="N37" t="s">
+        <v>106</v>
+      </c>
+      <c r="O37">
+        <v>90</v>
+      </c>
+      <c r="P37" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="9"/>
+        <v>0.31111111111111112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>102</v>
+      </c>
       <c r="B38" t="s">
         <v>40</v>
       </c>
       <c r="C38">
-        <v>3643962</v>
+        <v>3639089</v>
       </c>
       <c r="D38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E38">
-        <v>2016</v>
-      </c>
-      <c r="I38" t="str">
-        <f t="shared" si="0"/>
-        <v>NA</v>
-      </c>
-      <c r="J38" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+        <v>2017</v>
+      </c>
+      <c r="F38" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>268</v>
+      </c>
+      <c r="H38">
+        <v>176</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="4"/>
+        <v>0.60360360360360366</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="5"/>
+        <v>0.20720720720720726</v>
+      </c>
+      <c r="K38">
+        <v>0.5</v>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" si="6"/>
+        <v>YES</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="7"/>
+        <v>0.10360360360360366</v>
+      </c>
+      <c r="N38" t="s">
+        <v>106</v>
+      </c>
+      <c r="O38">
+        <v>1815</v>
+      </c>
+      <c r="P38" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="9"/>
+        <v>0.24462809917355371</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>102</v>
+      </c>
       <c r="B39" t="s">
         <v>40</v>
       </c>
       <c r="C39">
-        <v>3644149</v>
+        <v>3642378</v>
       </c>
       <c r="D39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E39">
-        <v>2018</v>
-      </c>
-      <c r="I39" t="str">
-        <f t="shared" si="0"/>
-        <v>NA</v>
-      </c>
-      <c r="J39" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+        <v>2009</v>
+      </c>
+      <c r="F39" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>71</v>
+      </c>
+      <c r="H39">
+        <v>26</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="4"/>
+        <v>0.73195876288659789</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="5"/>
+        <v>0.46391752577319584</v>
+      </c>
+      <c r="K39">
+        <v>0.5</v>
+      </c>
+      <c r="L39" t="str">
+        <f t="shared" si="6"/>
+        <v>YES</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="7"/>
+        <v>0.23195876288659789</v>
+      </c>
+      <c r="N39">
+        <v>229</v>
+      </c>
+      <c r="O39">
+        <v>389</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="8"/>
+        <v>0.42358078602620086</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="9"/>
+        <v>0.24935732647814909</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>102</v>
+      </c>
       <c r="B40" t="s">
         <v>40</v>
       </c>
       <c r="C40">
-        <v>3646085</v>
+        <v>3643962</v>
       </c>
       <c r="D40" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E40">
-        <v>2018</v>
-      </c>
-      <c r="I40" t="str">
-        <f t="shared" si="0"/>
-        <v>NA</v>
-      </c>
-      <c r="J40" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+        <v>2016</v>
+      </c>
+      <c r="F40" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>519</v>
+      </c>
+      <c r="H40">
+        <v>353</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="4"/>
+        <v>0.59518348623853212</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="5"/>
+        <v>0.19036697247706424</v>
+      </c>
+      <c r="K40">
+        <v>0.5</v>
+      </c>
+      <c r="L40" t="str">
+        <f t="shared" si="6"/>
+        <v>YES</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="7"/>
+        <v>9.5183486238532122E-2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>106</v>
+      </c>
+      <c r="O40">
+        <v>3619</v>
+      </c>
+      <c r="P40" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="9"/>
+        <v>0.24095053882287926</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>102</v>
+      </c>
       <c r="B41" t="s">
         <v>40</v>
       </c>
       <c r="C41">
-        <v>3657287</v>
+        <v>3644149</v>
       </c>
       <c r="D41" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E41">
-        <v>2013</v>
-      </c>
-      <c r="I41" t="str">
-        <f t="shared" si="0"/>
-        <v>NA</v>
-      </c>
-      <c r="J41" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+        <v>2008</v>
+      </c>
+      <c r="F41" t="b">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>228</v>
+      </c>
+      <c r="H41">
+        <v>257</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="4"/>
+        <v>0.47010309278350515</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="5"/>
+        <v>-5.97938144329897E-2</v>
+      </c>
+      <c r="K41">
+        <v>0.5</v>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="7"/>
+        <v>-2.989690721649485E-2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>106</v>
+      </c>
+      <c r="O41">
+        <v>1523</v>
+      </c>
+      <c r="P41" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="9"/>
+        <v>0.3184504267892318</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>102</v>
+      </c>
       <c r="B42" t="s">
         <v>40</v>
       </c>
       <c r="C42">
-        <v>3659333</v>
+        <v>3644149</v>
       </c>
       <c r="D42" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E42">
-        <v>2018</v>
-      </c>
-      <c r="I42" t="str">
-        <f t="shared" si="0"/>
-        <v>NA</v>
-      </c>
-      <c r="J42" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+        <v>2010</v>
+      </c>
+      <c r="F42" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>199</v>
+      </c>
+      <c r="H42">
+        <v>295</v>
+      </c>
+      <c r="I42">
+        <f t="shared" ref="I42" si="10">IF(F42 = TRUE, G42/(G42+H42), "NA")</f>
+        <v>0.40283400809716602</v>
+      </c>
+      <c r="J42">
+        <f t="shared" ref="J42" si="11">IF(F42 = TRUE,(G42)/(G42+H42) - (H42)/(G42+H42), "NA")</f>
+        <v>-0.19433198380566802</v>
+      </c>
+      <c r="K42">
+        <v>0.5</v>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" ref="L42" si="12">IF(I42&lt;&gt;"NA",IF(I42&gt;K42,"YES","NO"),"NA")</f>
+        <v>NO</v>
+      </c>
+      <c r="M42">
+        <f t="shared" ref="M42" si="13">IF(F42=TRUE,I42-K42,"NA")</f>
+        <v>-9.7165991902833981E-2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>106</v>
+      </c>
+      <c r="O42">
+        <v>1523</v>
+      </c>
+      <c r="P42" t="str">
+        <f t="shared" ref="P42" si="14">IF(N42&lt;&gt;"NA",(G42+H42)/N42, "NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" ref="Q42" si="15">IFERROR((G42+H42)/O42, "NA")</f>
+        <v>0.32435981615233095</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>102</v>
+      </c>
       <c r="B43" t="s">
         <v>40</v>
       </c>
       <c r="C43">
-        <v>3659883</v>
+        <v>3644149</v>
       </c>
       <c r="D43" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E43">
-        <v>2016</v>
-      </c>
-      <c r="I43" t="str">
-        <f t="shared" si="0"/>
-        <v>NA</v>
-      </c>
-      <c r="J43" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+        <v>2015</v>
+      </c>
+      <c r="F43" t="b">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>300</v>
+      </c>
+      <c r="H43">
+        <v>246</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="4"/>
+        <v>0.5494505494505495</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="5"/>
+        <v>9.8901098901098938E-2</v>
+      </c>
+      <c r="K43">
+        <v>0.5</v>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="6"/>
+        <v>YES</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="7"/>
+        <v>4.9450549450549497E-2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>106</v>
+      </c>
+      <c r="O43">
+        <v>1523</v>
+      </c>
+      <c r="P43" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="9"/>
+        <v>0.35850295469468157</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>102</v>
+      </c>
       <c r="B44" t="s">
         <v>40</v>
       </c>
       <c r="C44">
-        <v>3660576</v>
+        <v>3646085</v>
       </c>
       <c r="D44" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E44">
-        <v>2014</v>
-      </c>
-      <c r="I44" t="str">
-        <f t="shared" si="0"/>
-        <v>NA</v>
-      </c>
-      <c r="J44" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+        <v>2018</v>
+      </c>
+      <c r="F44" t="b">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1922</v>
+      </c>
+      <c r="H44">
+        <v>1215</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="4"/>
+        <v>0.61268728084156843</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="5"/>
+        <v>0.2253745616831368</v>
+      </c>
+      <c r="K44">
+        <v>0.5</v>
+      </c>
+      <c r="L44" t="str">
+        <f t="shared" si="6"/>
+        <v>YES</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="7"/>
+        <v>0.11268728084156843</v>
+      </c>
+      <c r="N44" t="s">
+        <v>106</v>
+      </c>
+      <c r="O44">
+        <v>14849</v>
+      </c>
+      <c r="P44" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="9"/>
+        <v>0.21126001750959661</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>102</v>
+      </c>
       <c r="B45" t="s">
         <v>40</v>
       </c>
       <c r="C45">
-        <v>3664771</v>
+        <v>3657287</v>
       </c>
       <c r="D45" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E45">
-        <v>2017</v>
-      </c>
-      <c r="I45" t="str">
-        <f t="shared" si="0"/>
-        <v>NA</v>
-      </c>
-      <c r="J45" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+        <v>2013</v>
+      </c>
+      <c r="F45" t="b">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>60</v>
+      </c>
+      <c r="H45">
+        <v>9</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="4"/>
+        <v>0.86956521739130432</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="5"/>
+        <v>0.73913043478260865</v>
+      </c>
+      <c r="K45">
+        <v>0.5</v>
+      </c>
+      <c r="L45" t="str">
+        <f t="shared" si="6"/>
+        <v>YES</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="7"/>
+        <v>0.36956521739130432</v>
+      </c>
+      <c r="N45" t="s">
+        <v>106</v>
+      </c>
+      <c r="O45">
+        <v>401</v>
+      </c>
+      <c r="P45" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="9"/>
+        <v>0.17206982543640897</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>102</v>
+      </c>
       <c r="B46" t="s">
         <v>40</v>
       </c>
       <c r="C46">
-        <v>3666322</v>
+        <v>3659333</v>
       </c>
       <c r="D46" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E46">
-        <v>2013</v>
-      </c>
-      <c r="I46" t="str">
-        <f t="shared" si="0"/>
-        <v>NA</v>
-      </c>
-      <c r="J46" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+        <v>2010</v>
+      </c>
+      <c r="F46" t="b">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>146</v>
+      </c>
+      <c r="H46">
+        <v>186</v>
+      </c>
+      <c r="I46">
+        <f t="shared" ref="I46" si="16">IF(F46 = TRUE, G46/(G46+H46), "NA")</f>
+        <v>0.43975903614457829</v>
+      </c>
+      <c r="J46">
+        <f t="shared" ref="J46" si="17">IF(F46 = TRUE,(G46)/(G46+H46) - (H46)/(G46+H46), "NA")</f>
+        <v>-0.12048192771084337</v>
+      </c>
+      <c r="K46">
+        <v>0.5</v>
+      </c>
+      <c r="L46" t="str">
+        <f t="shared" ref="L46" si="18">IF(I46&lt;&gt;"NA",IF(I46&gt;K46,"YES","NO"),"NA")</f>
+        <v>NO</v>
+      </c>
+      <c r="M46">
+        <f t="shared" ref="M46" si="19">IF(F46=TRUE,I46-K46,"NA")</f>
+        <v>-6.0240963855421714E-2</v>
+      </c>
+      <c r="N46" t="s">
+        <v>106</v>
+      </c>
+      <c r="O46">
+        <v>1194</v>
+      </c>
+      <c r="P46" t="str">
+        <f t="shared" ref="P46" si="20">IF(N46&lt;&gt;"NA",(G46+H46)/N46, "NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" ref="Q46" si="21">IFERROR((G46+H46)/O46, "NA")</f>
+        <v>0.27805695142378561</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>102</v>
+      </c>
       <c r="B47" t="s">
         <v>40</v>
       </c>
       <c r="C47">
+        <v>3659333</v>
+      </c>
+      <c r="D47" t="s">
+        <v>56</v>
+      </c>
+      <c r="E47">
+        <v>2018</v>
+      </c>
+      <c r="F47" t="b">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>208</v>
+      </c>
+      <c r="H47">
+        <v>188</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="4"/>
+        <v>0.5252525252525253</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="5"/>
+        <v>5.0505050505050553E-2</v>
+      </c>
+      <c r="K47">
+        <v>0.5</v>
+      </c>
+      <c r="L47" t="str">
+        <f t="shared" si="6"/>
+        <v>YES</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="7"/>
+        <v>2.5252525252525304E-2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>106</v>
+      </c>
+      <c r="O47">
+        <v>1120</v>
+      </c>
+      <c r="P47" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="9"/>
+        <v>0.35357142857142859</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48">
+        <v>3659883</v>
+      </c>
+      <c r="D48" t="s">
+        <v>57</v>
+      </c>
+      <c r="E48">
+        <v>2016</v>
+      </c>
+      <c r="F48" t="b">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>91</v>
+      </c>
+      <c r="H48">
+        <v>7</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="4"/>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="5"/>
+        <v>0.85714285714285721</v>
+      </c>
+      <c r="K48">
+        <v>0.5</v>
+      </c>
+      <c r="L48" t="str">
+        <f t="shared" si="6"/>
+        <v>YES</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="7"/>
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="N48" t="s">
+        <v>106</v>
+      </c>
+      <c r="O48">
+        <v>291</v>
+      </c>
+      <c r="P48" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="9"/>
+        <v>0.33676975945017185</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49">
+        <v>3660576</v>
+      </c>
+      <c r="D49" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49">
+        <v>2014</v>
+      </c>
+      <c r="F49" t="b">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>125</v>
+      </c>
+      <c r="H49">
+        <v>13</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="4"/>
+        <v>0.90579710144927539</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="5"/>
+        <v>0.81159420289855078</v>
+      </c>
+      <c r="K49">
+        <v>0.5</v>
+      </c>
+      <c r="L49" t="str">
+        <f t="shared" si="6"/>
+        <v>YES</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="7"/>
+        <v>0.40579710144927539</v>
+      </c>
+      <c r="N49" t="s">
+        <v>106</v>
+      </c>
+      <c r="O49">
+        <v>2602</v>
+      </c>
+      <c r="P49" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="9"/>
+        <v>5.3036126056879324E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50">
+        <v>3664771</v>
+      </c>
+      <c r="D50" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50">
+        <v>2017</v>
+      </c>
+      <c r="F50" t="b">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>192</v>
+      </c>
+      <c r="H50">
+        <v>49</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="4"/>
+        <v>0.79668049792531115</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="5"/>
+        <v>0.5933609958506223</v>
+      </c>
+      <c r="K50">
+        <v>0.5</v>
+      </c>
+      <c r="L50" t="str">
+        <f t="shared" si="6"/>
+        <v>YES</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="7"/>
+        <v>0.29668049792531115</v>
+      </c>
+      <c r="N50" t="s">
+        <v>106</v>
+      </c>
+      <c r="O50">
+        <v>946</v>
+      </c>
+      <c r="P50" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="9"/>
+        <v>0.2547568710359408</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51">
+        <v>3666322</v>
+      </c>
+      <c r="D51" t="s">
+        <v>60</v>
+      </c>
+      <c r="E51">
+        <v>2010</v>
+      </c>
+      <c r="F51" t="b">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>1198</v>
+      </c>
+      <c r="H51">
+        <v>1112</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="4"/>
+        <v>0.51861471861471864</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="5"/>
+        <v>3.7229437229437279E-2</v>
+      </c>
+      <c r="K51">
+        <v>0.5</v>
+      </c>
+      <c r="L51" t="str">
+        <f t="shared" si="6"/>
+        <v>YES</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="7"/>
+        <v>1.8614718614718639E-2</v>
+      </c>
+      <c r="N51" t="s">
+        <v>106</v>
+      </c>
+      <c r="O51">
+        <v>6681</v>
+      </c>
+      <c r="P51" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="9"/>
+        <v>0.34575662325999101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52">
         <v>3676881</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D52" t="s">
         <v>61</v>
-      </c>
-      <c r="E47">
-        <v>2020</v>
-      </c>
-      <c r="I47" t="str">
-        <f t="shared" si="0"/>
-        <v>NA</v>
-      </c>
-      <c r="J47" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>62</v>
-      </c>
-      <c r="C48">
-        <v>3711560</v>
-      </c>
-      <c r="D48" t="s">
-        <v>63</v>
-      </c>
-      <c r="E48">
-        <v>2018</v>
-      </c>
-      <c r="I48" t="str">
-        <f t="shared" si="0"/>
-        <v>NA</v>
-      </c>
-      <c r="J48" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>64</v>
-      </c>
-      <c r="C49">
-        <v>3804740</v>
-      </c>
-      <c r="D49" t="s">
-        <v>65</v>
-      </c>
-      <c r="E49">
-        <v>2021</v>
-      </c>
-      <c r="I49" t="str">
-        <f t="shared" si="0"/>
-        <v>NA</v>
-      </c>
-      <c r="J49" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>66</v>
-      </c>
-      <c r="C50">
-        <v>3901742</v>
-      </c>
-      <c r="D50" t="s">
-        <v>67</v>
-      </c>
-      <c r="E50">
-        <v>2020</v>
-      </c>
-      <c r="I50" t="str">
-        <f t="shared" si="0"/>
-        <v>NA</v>
-      </c>
-      <c r="J50" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>66</v>
-      </c>
-      <c r="C51">
-        <v>3908168</v>
-      </c>
-      <c r="D51" t="s">
-        <v>68</v>
-      </c>
-      <c r="E51">
-        <v>2019</v>
-      </c>
-      <c r="I51" t="str">
-        <f t="shared" si="0"/>
-        <v>NA</v>
-      </c>
-      <c r="J51" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52">
-        <v>3913834</v>
-      </c>
-      <c r="D52" t="s">
-        <v>69</v>
       </c>
       <c r="E52">
         <v>2017</v>
       </c>
-      <c r="I52" t="str">
-        <f t="shared" si="0"/>
-        <v>NA</v>
-      </c>
-      <c r="J52" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F52" t="b">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>103</v>
+      </c>
+      <c r="H52">
+        <v>76</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="4"/>
+        <v>0.57541899441340782</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="5"/>
+        <v>0.15083798882681565</v>
+      </c>
+      <c r="K52">
+        <v>0.5</v>
+      </c>
+      <c r="L52" t="str">
+        <f t="shared" si="6"/>
+        <v>YES</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="7"/>
+        <v>7.5418994413407825E-2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>106</v>
+      </c>
+      <c r="O52">
+        <v>600</v>
+      </c>
+      <c r="P52" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="9"/>
+        <v>0.29833333333333334</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>102</v>
+      </c>
       <c r="B53" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C53">
-        <v>3927944</v>
+        <v>3711560</v>
       </c>
       <c r="D53" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E53">
-        <v>2013</v>
+        <v>2018</v>
+      </c>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+      <c r="G53" t="s">
+        <v>106</v>
+      </c>
+      <c r="H53" t="s">
+        <v>106</v>
       </c>
       <c r="I53" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="J53" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>NA</v>
+      </c>
+      <c r="K53">
+        <v>0.5</v>
+      </c>
+      <c r="L53" t="str">
+        <f t="shared" si="6"/>
+        <v>NA</v>
+      </c>
+      <c r="M53" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="N53" t="s">
+        <v>106</v>
+      </c>
+      <c r="O53">
+        <v>89</v>
+      </c>
+      <c r="P53" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="Q53" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>102</v>
+      </c>
       <c r="B54" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C54">
-        <v>3943596</v>
+        <v>3804740</v>
       </c>
       <c r="D54" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E54">
-        <v>2020</v>
+        <v>2021</v>
+      </c>
+      <c r="F54" t="b">
+        <v>0</v>
+      </c>
+      <c r="G54" t="s">
+        <v>106</v>
+      </c>
+      <c r="H54" t="s">
+        <v>106</v>
       </c>
       <c r="I54" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="J54" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>NA</v>
+      </c>
+      <c r="K54">
+        <v>0.5</v>
+      </c>
+      <c r="L54" t="str">
+        <f t="shared" si="6"/>
+        <v>NA</v>
+      </c>
+      <c r="M54" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="N54" t="s">
+        <v>106</v>
+      </c>
+      <c r="O54">
+        <v>6</v>
+      </c>
+      <c r="P54" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="Q54" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>102</v>
+      </c>
       <c r="B55" t="s">
         <v>66</v>
       </c>
       <c r="C55">
-        <v>3958800</v>
+        <v>3901742</v>
       </c>
       <c r="D55" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E55">
-        <v>2015</v>
-      </c>
-      <c r="I55" t="str">
-        <f t="shared" si="0"/>
-        <v>NA</v>
-      </c>
-      <c r="J55" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+        <v>2019</v>
+      </c>
+      <c r="F55" t="b">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>843</v>
+      </c>
+      <c r="H55">
+        <v>479</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="4"/>
+        <v>0.63767019667170954</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="5"/>
+        <v>0.27534039334341909</v>
+      </c>
+      <c r="K55">
+        <v>0.5</v>
+      </c>
+      <c r="L55" t="str">
+        <f t="shared" si="6"/>
+        <v>YES</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="7"/>
+        <v>0.13767019667170954</v>
+      </c>
+      <c r="N55" t="s">
+        <v>106</v>
+      </c>
+      <c r="O55">
+        <v>5039</v>
+      </c>
+      <c r="P55" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="9"/>
+        <v>0.26235364159555469</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>102</v>
+      </c>
       <c r="B56" t="s">
         <v>66</v>
       </c>
       <c r="C56">
-        <v>3969666</v>
+        <v>3908168</v>
       </c>
       <c r="D56" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E56">
         <v>2013</v>
       </c>
-      <c r="I56" t="str">
-        <f t="shared" si="0"/>
-        <v>NA</v>
-      </c>
-      <c r="J56" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F56" t="b">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>63</v>
+      </c>
+      <c r="H56">
+        <v>135</v>
+      </c>
+      <c r="I56">
+        <f>IF(F56 = TRUE, G56/(G56+H56), "NA")</f>
+        <v>0.31818181818181818</v>
+      </c>
+      <c r="J56">
+        <f>IF(F56 = TRUE,(G56)/(G56+H56) - (H56)/(G56+H56), "NA")</f>
+        <v>-0.36363636363636359</v>
+      </c>
+      <c r="K56">
+        <v>0.5</v>
+      </c>
+      <c r="L56" t="str">
+        <f t="shared" ref="L56" si="22">IF(I56&lt;&gt;"NA",IF(I56&gt;K56,"YES","NO"),"NA")</f>
+        <v>NO</v>
+      </c>
+      <c r="M56">
+        <f>IF(F56=TRUE,I56-K56,"NA")</f>
+        <v>-0.18181818181818182</v>
+      </c>
+      <c r="N56" t="s">
+        <v>106</v>
+      </c>
+      <c r="O56">
+        <v>518</v>
+      </c>
+      <c r="P56" t="str">
+        <f>IF(N56&lt;&gt;"NA",(G56+H56)/N56, "NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="Q56">
+        <f>IFERROR((G56+H56)/O56, "NA")</f>
+        <v>0.38223938223938225</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>102</v>
+      </c>
       <c r="B57" t="s">
         <v>66</v>
       </c>
       <c r="C57">
-        <v>3970072</v>
+        <v>3908168</v>
       </c>
       <c r="D57" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E57">
         <v>2017</v>
       </c>
-      <c r="I57" t="str">
-        <f t="shared" si="0"/>
-        <v>NA</v>
-      </c>
-      <c r="J57" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F57" t="b">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>106</v>
+      </c>
+      <c r="H57">
+        <v>88</v>
+      </c>
+      <c r="I57">
+        <f>IF(F57 = TRUE, G57/(G57+H57), "NA")</f>
+        <v>0.54639175257731953</v>
+      </c>
+      <c r="J57">
+        <f>IF(F57 = TRUE,(G57)/(G57+H57) - (H57)/(G57+H57), "NA")</f>
+        <v>9.2783505154639123E-2</v>
+      </c>
+      <c r="K57">
+        <v>0.5</v>
+      </c>
+      <c r="L57" t="str">
+        <f t="shared" si="6"/>
+        <v>YES</v>
+      </c>
+      <c r="M57">
+        <f>IF(F57=TRUE,I57-K57,"NA")</f>
+        <v>4.6391752577319534E-2</v>
+      </c>
+      <c r="N57" t="s">
+        <v>106</v>
+      </c>
+      <c r="O57">
+        <v>518</v>
+      </c>
+      <c r="P57" t="str">
+        <f>IF(N57&lt;&gt;"NA",(G57+H57)/N57, "NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="Q57">
+        <f>IFERROR((G57+H57)/O57, "NA")</f>
+        <v>0.37451737451737449</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>102</v>
+      </c>
       <c r="B58" t="s">
         <v>66</v>
       </c>
       <c r="C58">
-        <v>3972998</v>
+        <v>3913834</v>
       </c>
       <c r="D58" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E58">
-        <v>2017</v>
-      </c>
-      <c r="I58" t="str">
-        <f t="shared" si="0"/>
-        <v>NA</v>
-      </c>
-      <c r="J58" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+        <v>2014</v>
+      </c>
+      <c r="F58" t="b">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>22</v>
+      </c>
+      <c r="H58">
+        <v>5</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="4"/>
+        <v>0.81481481481481477</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="5"/>
+        <v>0.62962962962962954</v>
+      </c>
+      <c r="K58">
+        <v>0.5</v>
+      </c>
+      <c r="L58" t="str">
+        <f t="shared" si="6"/>
+        <v>YES</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="7"/>
+        <v>0.31481481481481477</v>
+      </c>
+      <c r="N58" t="s">
+        <v>106</v>
+      </c>
+      <c r="O58">
+        <v>150</v>
+      </c>
+      <c r="P58" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="9"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>102</v>
+      </c>
       <c r="B59" t="s">
         <v>66</v>
       </c>
       <c r="C59">
-        <v>3978848</v>
+        <v>3927944</v>
       </c>
       <c r="D59" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E59">
-        <v>2017</v>
-      </c>
-      <c r="I59" t="str">
-        <f t="shared" si="0"/>
-        <v>NA</v>
-      </c>
-      <c r="J59" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+        <v>2012</v>
+      </c>
+      <c r="F59" t="b">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>1085</v>
+      </c>
+      <c r="H59">
+        <v>858</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="4"/>
+        <v>0.55841482243952656</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="5"/>
+        <v>0.11682964487905306</v>
+      </c>
+      <c r="K59">
+        <v>0.5</v>
+      </c>
+      <c r="L59" t="str">
+        <f t="shared" si="6"/>
+        <v>YES</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="7"/>
+        <v>5.8414822439526559E-2</v>
+      </c>
+      <c r="N59" t="s">
+        <v>106</v>
+      </c>
+      <c r="O59">
+        <v>3726</v>
+      </c>
+      <c r="P59" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="9"/>
+        <v>0.52147074610842725</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>102</v>
+      </c>
       <c r="B60" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C60">
-        <v>4117800</v>
+        <v>3943596</v>
       </c>
       <c r="D60" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E60">
+        <v>2015</v>
+      </c>
+      <c r="F60" t="b">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>23</v>
+      </c>
+      <c r="H60">
+        <v>29</v>
+      </c>
+      <c r="I60">
+        <f t="shared" ref="I60" si="23">IF(F60 = TRUE, G60/(G60+H60), "NA")</f>
+        <v>0.44230769230769229</v>
+      </c>
+      <c r="J60">
+        <f t="shared" ref="J60" si="24">IF(F60 = TRUE,(G60)/(G60+H60) - (H60)/(G60+H60), "NA")</f>
+        <v>-0.11538461538461542</v>
+      </c>
+      <c r="K60">
+        <v>0.5</v>
+      </c>
+      <c r="L60" t="str">
+        <f t="shared" ref="L60" si="25">IF(I60&lt;&gt;"NA",IF(I60&gt;K60,"YES","NO"),"NA")</f>
+        <v>NO</v>
+      </c>
+      <c r="M60">
+        <f t="shared" ref="M60" si="26">IF(F60=TRUE,I60-K60,"NA")</f>
+        <v>-5.7692307692307709E-2</v>
+      </c>
+      <c r="N60" t="s">
+        <v>106</v>
+      </c>
+      <c r="O60">
+        <v>151</v>
+      </c>
+      <c r="P60" t="str">
+        <f t="shared" ref="P60" si="27">IF(N60&lt;&gt;"NA",(G60+H60)/N60, "NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" ref="Q60" si="28">IFERROR((G60+H60)/O60, "NA")</f>
+        <v>0.3443708609271523</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>102</v>
+      </c>
+      <c r="B61" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61">
+        <v>3943596</v>
+      </c>
+      <c r="D61" t="s">
+        <v>71</v>
+      </c>
+      <c r="E61">
         <v>2018</v>
       </c>
-      <c r="I60" t="str">
-        <f t="shared" si="0"/>
-        <v>NA</v>
-      </c>
-      <c r="J60" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>79</v>
-      </c>
-      <c r="C61">
-        <v>4274744</v>
-      </c>
-      <c r="D61" t="s">
-        <v>80</v>
-      </c>
-      <c r="E61">
-        <v>2017</v>
-      </c>
-      <c r="I61" t="str">
-        <f t="shared" si="0"/>
-        <v>NA</v>
-      </c>
-      <c r="J61" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F61" t="b">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>30</v>
+      </c>
+      <c r="H61">
+        <v>12</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="4"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="5"/>
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="K61">
+        <v>0.5</v>
+      </c>
+      <c r="L61" t="str">
+        <f t="shared" si="6"/>
+        <v>YES</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="7"/>
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="N61" t="s">
+        <v>106</v>
+      </c>
+      <c r="O61">
+        <v>151</v>
+      </c>
+      <c r="P61" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="9"/>
+        <v>0.27814569536423839</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>102</v>
+      </c>
       <c r="B62" t="s">
-        <v>81</v>
-      </c>
-      <c r="C62">
-        <v>4656420</v>
+        <v>66</v>
+      </c>
+      <c r="C62" t="s">
+        <v>114</v>
       </c>
       <c r="D62" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="E62">
-        <v>2014</v>
-      </c>
-      <c r="I62" t="str">
-        <f t="shared" si="0"/>
-        <v>NA</v>
-      </c>
-      <c r="J62" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+        <v>2019</v>
+      </c>
+      <c r="F62" t="b">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>53</v>
+      </c>
+      <c r="H62">
+        <v>46</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="4"/>
+        <v>0.53535353535353536</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="5"/>
+        <v>7.0707070707070718E-2</v>
+      </c>
+      <c r="K62">
+        <v>0.5</v>
+      </c>
+      <c r="L62" t="str">
+        <f t="shared" si="6"/>
+        <v>YES</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="7"/>
+        <v>3.5353535353535359E-2</v>
+      </c>
+      <c r="N62" t="s">
+        <v>106</v>
+      </c>
+      <c r="O62">
+        <v>392</v>
+      </c>
+      <c r="P62" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="9"/>
+        <v>0.25255102040816324</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>102</v>
+      </c>
       <c r="B63" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="C63">
-        <v>4737360</v>
+        <v>3958800</v>
       </c>
       <c r="D63" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="E63">
         <v>2013</v>
       </c>
-      <c r="I63" t="str">
-        <f t="shared" si="0"/>
-        <v>NA</v>
-      </c>
-      <c r="J63" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F63" t="b">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>38</v>
+      </c>
+      <c r="H63">
+        <v>30</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="4"/>
+        <v>0.55882352941176472</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="5"/>
+        <v>0.11764705882352944</v>
+      </c>
+      <c r="K63">
+        <v>0.5</v>
+      </c>
+      <c r="L63" t="str">
+        <f t="shared" si="6"/>
+        <v>YES</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="7"/>
+        <v>5.8823529411764719E-2</v>
+      </c>
+      <c r="N63">
+        <v>165</v>
+      </c>
+      <c r="O63">
+        <v>270</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="8"/>
+        <v>0.41212121212121211</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="9"/>
+        <v>0.25185185185185183</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>102</v>
+      </c>
       <c r="B64" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C64">
-        <v>4911435</v>
+        <v>3969666</v>
       </c>
       <c r="D64" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="E64">
-        <v>2021</v>
-      </c>
-      <c r="I64" t="str">
-        <f t="shared" si="0"/>
-        <v>NA</v>
-      </c>
-      <c r="J64" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+        <v>2011</v>
+      </c>
+      <c r="F64" t="b">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>43</v>
+      </c>
+      <c r="H64">
+        <v>14</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="4"/>
+        <v>0.75438596491228072</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="5"/>
+        <v>0.50877192982456143</v>
+      </c>
+      <c r="K64">
+        <v>0.5</v>
+      </c>
+      <c r="L64" t="str">
+        <f t="shared" si="6"/>
+        <v>YES</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="7"/>
+        <v>0.25438596491228072</v>
+      </c>
+      <c r="N64" t="s">
+        <v>106</v>
+      </c>
+      <c r="O64">
+        <v>129</v>
+      </c>
+      <c r="P64" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="9"/>
+        <v>0.44186046511627908</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>102</v>
+      </c>
       <c r="B65" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C65">
-        <v>4956750</v>
+        <v>3970072</v>
       </c>
       <c r="D65" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E65">
-        <v>2018</v>
-      </c>
-      <c r="I65" t="str">
-        <f t="shared" si="0"/>
-        <v>NA</v>
-      </c>
-      <c r="J65" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+        <v>2015</v>
+      </c>
+      <c r="F65" t="b">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>22</v>
+      </c>
+      <c r="H65">
+        <v>11</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="4"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K65">
+        <v>0.5</v>
+      </c>
+      <c r="L65" t="str">
+        <f t="shared" si="6"/>
+        <v>YES</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="7"/>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="N65" t="s">
+        <v>106</v>
+      </c>
+      <c r="O65">
+        <v>129</v>
+      </c>
+      <c r="P65" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="9"/>
+        <v>0.2558139534883721</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>102</v>
+      </c>
       <c r="B66" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C66">
-        <v>5011050</v>
+        <v>3972998</v>
       </c>
       <c r="D66" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="E66">
-        <v>2013</v>
-      </c>
-      <c r="I66" t="str">
-        <f t="shared" si="0"/>
-        <v>NA</v>
-      </c>
-      <c r="J66" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+        <v>2017</v>
+      </c>
+      <c r="F66" t="b">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>25</v>
+      </c>
+      <c r="H66">
+        <v>23</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="4"/>
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="5"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="K66">
+        <v>0.5</v>
+      </c>
+      <c r="L66" t="str">
+        <f t="shared" si="6"/>
+        <v>YES</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="7"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="N66" t="s">
+        <v>106</v>
+      </c>
+      <c r="O66">
+        <v>283</v>
+      </c>
+      <c r="P66" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="9"/>
+        <v>0.16961130742049471</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>102</v>
+      </c>
       <c r="B67" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C67">
-        <v>5050200</v>
+        <v>3978848</v>
       </c>
       <c r="D67" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="E67">
-        <v>2015</v>
-      </c>
-      <c r="I67" t="str">
-        <f t="shared" ref="I67:I70" si="2">IF(F67 = TRUE, G67/(G67+H67), "NA")</f>
-        <v>NA</v>
-      </c>
-      <c r="J67" t="str">
-        <f t="shared" ref="J67:J70" si="3">IF(F67 = TRUE,(G67)/(G67+H67) - (H67)/(G67+H67), "NA")</f>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+        <v>2012</v>
+      </c>
+      <c r="F67" t="b">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>57</v>
+      </c>
+      <c r="H67">
+        <v>60</v>
+      </c>
+      <c r="I67">
+        <f t="shared" ref="I67" si="29">IF(F67 = TRUE, G67/(G67+H67), "NA")</f>
+        <v>0.48717948717948717</v>
+      </c>
+      <c r="J67">
+        <f t="shared" ref="J67" si="30">IF(F67 = TRUE,(G67)/(G67+H67) - (H67)/(G67+H67), "NA")</f>
+        <v>-2.5641025641025605E-2</v>
+      </c>
+      <c r="K67">
+        <v>0.5</v>
+      </c>
+      <c r="L67" t="str">
+        <f t="shared" ref="L67" si="31">IF(I67&lt;&gt;"NA",IF(I67&gt;K67,"YES","NO"),"NA")</f>
+        <v>NO</v>
+      </c>
+      <c r="M67">
+        <f t="shared" ref="M67" si="32">IF(F67=TRUE,I67-K67,"NA")</f>
+        <v>-1.282051282051283E-2</v>
+      </c>
+      <c r="N67" t="s">
+        <v>106</v>
+      </c>
+      <c r="O67">
+        <v>222</v>
+      </c>
+      <c r="P67" t="str">
+        <f t="shared" ref="P67" si="33">IF(N67&lt;&gt;"NA",(G67+H67)/N67, "NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" ref="Q67" si="34">IFERROR((G67+H67)/O67, "NA")</f>
+        <v>0.52702702702702697</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>102</v>
+      </c>
       <c r="B68" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C68">
-        <v>5052375</v>
+        <v>3978848</v>
       </c>
       <c r="D68" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="E68">
         <v>2013</v>
       </c>
-      <c r="I68" t="str">
-        <f t="shared" si="2"/>
-        <v>NA</v>
-      </c>
-      <c r="J68" t="str">
-        <f t="shared" si="3"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F68" t="b">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>49</v>
+      </c>
+      <c r="H68">
+        <v>23</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="4"/>
+        <v>0.68055555555555558</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="5"/>
+        <v>0.36111111111111116</v>
+      </c>
+      <c r="K68">
+        <v>0.5</v>
+      </c>
+      <c r="L68" t="str">
+        <f t="shared" si="6"/>
+        <v>YES</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="7"/>
+        <v>0.18055555555555558</v>
+      </c>
+      <c r="N68" t="s">
+        <v>106</v>
+      </c>
+      <c r="O68">
+        <v>222</v>
+      </c>
+      <c r="P68" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="9"/>
+        <v>0.32432432432432434</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C69">
-        <v>5076900</v>
+        <v>4117800</v>
       </c>
       <c r="D69" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="E69">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="I69" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="J69" t="str">
-        <f t="shared" si="3"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>NA</v>
+      </c>
+      <c r="K69">
+        <v>0.5</v>
+      </c>
+      <c r="L69" t="str">
+        <f t="shared" si="6"/>
+        <v>NA</v>
+      </c>
+      <c r="M69" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="P69" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q69" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C70">
-        <v>5118624</v>
+        <v>4274744</v>
       </c>
       <c r="D70" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="E70">
         <v>2017</v>
       </c>
       <c r="I70" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="J70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
+        <v>NA</v>
+      </c>
+      <c r="K70">
+        <v>0.5</v>
+      </c>
+      <c r="L70" t="str">
+        <f t="shared" si="6"/>
+        <v>NA</v>
+      </c>
+      <c r="M70" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="P70" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q70" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>81</v>
+      </c>
+      <c r="C71">
+        <v>4656420</v>
+      </c>
+      <c r="D71" t="s">
+        <v>82</v>
+      </c>
+      <c r="E71">
+        <v>2014</v>
+      </c>
+      <c r="I71" t="str">
+        <f t="shared" si="4"/>
+        <v>NA</v>
+      </c>
+      <c r="J71" t="str">
+        <f t="shared" si="5"/>
+        <v>NA</v>
+      </c>
+      <c r="K71">
+        <v>0.5</v>
+      </c>
+      <c r="L71" t="str">
+        <f t="shared" si="6"/>
+        <v>NA</v>
+      </c>
+      <c r="M71" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="P71" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q71" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>83</v>
+      </c>
+      <c r="C72">
+        <v>4737360</v>
+      </c>
+      <c r="D72" t="s">
+        <v>84</v>
+      </c>
+      <c r="E72">
+        <v>2013</v>
+      </c>
+      <c r="I72" t="str">
+        <f t="shared" si="4"/>
+        <v>NA</v>
+      </c>
+      <c r="J72" t="str">
+        <f t="shared" si="5"/>
+        <v>NA</v>
+      </c>
+      <c r="K72">
+        <v>0.5</v>
+      </c>
+      <c r="L72" t="str">
+        <f t="shared" si="6"/>
+        <v>NA</v>
+      </c>
+      <c r="M72" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="P72" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q72" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>85</v>
+      </c>
+      <c r="C73">
+        <v>4911435</v>
+      </c>
+      <c r="D73" t="s">
+        <v>86</v>
+      </c>
+      <c r="E73">
+        <v>2021</v>
+      </c>
+      <c r="I73" t="str">
+        <f t="shared" si="4"/>
+        <v>NA</v>
+      </c>
+      <c r="J73" t="str">
+        <f t="shared" si="5"/>
+        <v>NA</v>
+      </c>
+      <c r="K73">
+        <v>0.5</v>
+      </c>
+      <c r="L73" t="str">
+        <f t="shared" si="6"/>
+        <v>NA</v>
+      </c>
+      <c r="M73" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="P73" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q73" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>85</v>
+      </c>
+      <c r="C74">
+        <v>4956750</v>
+      </c>
+      <c r="D74" t="s">
+        <v>87</v>
+      </c>
+      <c r="E74">
+        <v>2018</v>
+      </c>
+      <c r="I74" t="str">
+        <f t="shared" si="4"/>
+        <v>NA</v>
+      </c>
+      <c r="J74" t="str">
+        <f t="shared" si="5"/>
+        <v>NA</v>
+      </c>
+      <c r="K74">
+        <v>0.5</v>
+      </c>
+      <c r="L74" t="str">
+        <f t="shared" si="6"/>
+        <v>NA</v>
+      </c>
+      <c r="M74" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="P74" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q74" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>88</v>
+      </c>
+      <c r="C75">
+        <v>5011050</v>
+      </c>
+      <c r="D75" t="s">
+        <v>89</v>
+      </c>
+      <c r="E75">
+        <v>2013</v>
+      </c>
+      <c r="I75" t="str">
+        <f t="shared" si="4"/>
+        <v>NA</v>
+      </c>
+      <c r="J75" t="str">
+        <f t="shared" si="5"/>
+        <v>NA</v>
+      </c>
+      <c r="K75">
+        <v>0.5</v>
+      </c>
+      <c r="L75" t="str">
+        <f t="shared" si="6"/>
+        <v>NA</v>
+      </c>
+      <c r="M75" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="P75" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q75" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>88</v>
+      </c>
+      <c r="C76">
+        <v>5050200</v>
+      </c>
+      <c r="D76" t="s">
+        <v>90</v>
+      </c>
+      <c r="E76">
+        <v>2015</v>
+      </c>
+      <c r="I76" t="str">
+        <f t="shared" ref="I76:I79" si="35">IF(F76 = TRUE, G76/(G76+H76), "NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="J76" t="str">
+        <f t="shared" ref="J76:J79" si="36">IF(F76 = TRUE,(G76)/(G76+H76) - (H76)/(G76+H76), "NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="K76">
+        <v>0.5</v>
+      </c>
+      <c r="L76" t="str">
+        <f t="shared" ref="L76:L79" si="37">IF(I76&lt;&gt;"NA",IF(I76&gt;K76,"YES","NO"),"NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="M76" t="str">
+        <f t="shared" ref="M76:M79" si="38">IF(F76=TRUE,I76-K76,"NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="P76" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q76" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77">
+        <v>5052375</v>
+      </c>
+      <c r="D77" t="s">
+        <v>91</v>
+      </c>
+      <c r="E77">
+        <v>2013</v>
+      </c>
+      <c r="I77" t="str">
+        <f t="shared" si="35"/>
+        <v>NA</v>
+      </c>
+      <c r="J77" t="str">
+        <f t="shared" si="36"/>
+        <v>NA</v>
+      </c>
+      <c r="K77">
+        <v>0.5</v>
+      </c>
+      <c r="L77" t="str">
+        <f t="shared" si="37"/>
+        <v>NA</v>
+      </c>
+      <c r="M77" t="str">
+        <f t="shared" si="38"/>
+        <v>NA</v>
+      </c>
+      <c r="P77" t="e">
+        <f t="shared" ref="P77:P79" si="39">IF(N77&lt;&gt;"NA",(G77+H77)/N77, "NA")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q77" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>88</v>
+      </c>
+      <c r="C78">
+        <v>5076900</v>
+      </c>
+      <c r="D78" t="s">
+        <v>92</v>
+      </c>
+      <c r="E78">
+        <v>2019</v>
+      </c>
+      <c r="I78" t="str">
+        <f t="shared" si="35"/>
+        <v>NA</v>
+      </c>
+      <c r="J78" t="str">
+        <f t="shared" si="36"/>
+        <v>NA</v>
+      </c>
+      <c r="K78">
+        <v>0.5</v>
+      </c>
+      <c r="L78" t="str">
+        <f t="shared" si="37"/>
+        <v>NA</v>
+      </c>
+      <c r="M78" t="str">
+        <f t="shared" si="38"/>
+        <v>NA</v>
+      </c>
+      <c r="P78" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q78" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>93</v>
+      </c>
+      <c r="C79">
+        <v>5118624</v>
+      </c>
+      <c r="D79" t="s">
+        <v>94</v>
+      </c>
+      <c r="E79">
+        <v>2017</v>
+      </c>
+      <c r="I79" t="str">
+        <f t="shared" si="35"/>
+        <v>NA</v>
+      </c>
+      <c r="J79" t="str">
+        <f t="shared" si="36"/>
+        <v>NA</v>
+      </c>
+      <c r="K79">
+        <v>0.5</v>
+      </c>
+      <c r="L79" t="str">
+        <f t="shared" si="37"/>
+        <v>NA</v>
+      </c>
+      <c r="M79" t="str">
+        <f t="shared" si="38"/>
+        <v>NA</v>
+      </c>
+      <c r="P79" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q79" t="str">
+        <f t="shared" ref="Q79" si="40">IFERROR((G79+H79)/O79, "NA")</f>
         <v>NA</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Disincorporations Repository/disincs2010s.xlsx
+++ b/Disincorporations Repository/disincs2010s.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/23d03426a47caebe/3YP - Disincorporations/Disincorporations Repository/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="568" documentId="8_{84200984-B881-4A4A-BFD4-77E09D0A6A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7D4FC15-F76E-417D-A28D-DFD9069DE86A}"/>
+  <xr:revisionPtr revIDLastSave="1174" documentId="8_{84200984-B881-4A4A-BFD4-77E09D0A6A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92150274-3A75-4C92-A713-246464EEAD2D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="1008" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="disincs2010s" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="153">
   <si>
     <t>USPS</t>
   </si>
@@ -43,9 +43,6 @@
     <t>NAME</t>
   </si>
   <si>
-    <t>year</t>
-  </si>
-  <si>
     <t>AK</t>
   </si>
   <si>
@@ -349,18 +346,9 @@
     <t>Mackenzie</t>
   </si>
   <si>
-    <t>turnout</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
-    <t>pop_dissolved</t>
-  </si>
-  <si>
-    <t>turnout_pop</t>
-  </si>
-  <si>
     <t>registered</t>
   </si>
   <si>
@@ -380,6 +368,129 @@
   </si>
   <si>
     <t>Newtonsville</t>
+  </si>
+  <si>
+    <t>yes_20220503</t>
+  </si>
+  <si>
+    <t>yes_202020503</t>
+  </si>
+  <si>
+    <t>Alexandria</t>
+  </si>
+  <si>
+    <t>Cheshire</t>
+  </si>
+  <si>
+    <t>36XXXXX</t>
+  </si>
+  <si>
+    <t>Spencer</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Hartford</t>
+  </si>
+  <si>
+    <t>Martinsburg</t>
+  </si>
+  <si>
+    <t>Mannsville</t>
+  </si>
+  <si>
+    <t>Richfield Springs</t>
+  </si>
+  <si>
+    <t>Williamsville</t>
+  </si>
+  <si>
+    <t>Middleburgh</t>
+  </si>
+  <si>
+    <t>Schuylerville</t>
+  </si>
+  <si>
+    <t>Sloan</t>
+  </si>
+  <si>
+    <t>Farnham</t>
+  </si>
+  <si>
+    <t>Whitesboro</t>
+  </si>
+  <si>
+    <t>Smithfield</t>
+  </si>
+  <si>
+    <t>North Bend</t>
+  </si>
+  <si>
+    <t>Champlain</t>
+  </si>
+  <si>
+    <t>Holmesville</t>
+  </si>
+  <si>
+    <t>Speculator</t>
+  </si>
+  <si>
+    <t>turnout_dis</t>
+  </si>
+  <si>
+    <t>turnout_pop_dis</t>
+  </si>
+  <si>
+    <t>Cumberland</t>
+  </si>
+  <si>
+    <t>Leicester</t>
+  </si>
+  <si>
+    <t>Depew</t>
+  </si>
+  <si>
+    <t>year_nextpres</t>
+  </si>
+  <si>
+    <t>year_dis</t>
+  </si>
+  <si>
+    <t>Lakewood</t>
+  </si>
+  <si>
+    <t>Candor</t>
+  </si>
+  <si>
+    <t>Odessa</t>
+  </si>
+  <si>
+    <t>Potsdam</t>
+  </si>
+  <si>
+    <t>pop_dis</t>
+  </si>
+  <si>
+    <t>Malone</t>
+  </si>
+  <si>
+    <t>New Rome</t>
+  </si>
+  <si>
+    <t>Rushville</t>
+  </si>
+  <si>
+    <t>Medina</t>
+  </si>
+  <si>
+    <t>Victory</t>
+  </si>
+  <si>
+    <t>Neville</t>
+  </si>
+  <si>
+    <t>Corinth</t>
   </si>
 </sst>
 </file>
@@ -1220,11 +1331,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q79"/>
+  <dimension ref="A1:R113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M60" sqref="M60"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R114" sqref="R114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1239,11 +1350,12 @@
     <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1255,57 +1367,60 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N1" t="s">
+        <v>105</v>
+      </c>
+      <c r="O1" t="s">
+        <v>145</v>
+      </c>
+      <c r="P1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>135</v>
+      </c>
+      <c r="R1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K1" t="s">
-        <v>111</v>
-      </c>
-      <c r="L1" t="s">
-        <v>112</v>
-      </c>
-      <c r="M1" t="s">
-        <v>100</v>
-      </c>
-      <c r="N1" t="s">
-        <v>109</v>
-      </c>
-      <c r="O1" t="s">
-        <v>107</v>
-      </c>
-      <c r="P1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
       </c>
       <c r="C2">
         <v>260310</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>2014</v>
@@ -1339,10 +1454,10 @@
         <v>NA</v>
       </c>
       <c r="N2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P2" t="str">
         <f t="shared" ref="P2:P3" si="2">IF(N2&lt;&gt;"NA",(G2+H2)/N2, "NA")</f>
@@ -1352,19 +1467,22 @@
         <f t="shared" ref="Q2:Q5" si="3">IFERROR((G2+H2)/O2, "NA")</f>
         <v>NA</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>543430</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>2015</v>
@@ -1379,11 +1497,11 @@
         <v>0</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I75" si="4">IF(F3 = TRUE, G3/(G3+H3), "NA")</f>
+        <f t="shared" ref="I3:I78" si="4">IF(F3 = TRUE, G3/(G3+H3), "NA")</f>
         <v>NA</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J75" si="5">IF(F3 = TRUE,(G3)/(G3+H3) - (H3)/(G3+H3), "NA")</f>
+        <f t="shared" ref="J3:J78" si="5">IF(F3 = TRUE,(G3)/(G3+H3) - (H3)/(G3+H3), "NA")</f>
         <v>NA</v>
       </c>
       <c r="K3">
@@ -1398,10 +1516,10 @@
         <v>NA</v>
       </c>
       <c r="N3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P3" t="str">
         <f t="shared" si="2"/>
@@ -1411,19 +1529,22 @@
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>1229100</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>2019</v>
@@ -1470,19 +1591,22 @@
         <f t="shared" si="3"/>
         <v>0.27500000000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>1728612</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>2013</v>
@@ -1508,40 +1632,43 @@
         <v>0.5</v>
       </c>
       <c r="L5" t="str">
-        <f t="shared" ref="L5:L75" si="6">IF(I5&lt;&gt;"NA",IF(I5&gt;K5,"YES","NO"),"NA")</f>
+        <f t="shared" ref="L5:L78" si="6">IF(I5&lt;&gt;"NA",IF(I5&gt;K5,"YES","NO"),"NA")</f>
         <v>YES</v>
       </c>
       <c r="M5">
-        <f t="shared" ref="M5:M75" si="7">IF(F5=TRUE,I5-K5,"NA")</f>
+        <f t="shared" ref="M5:M78" si="7">IF(F5=TRUE,I5-K5,"NA")</f>
         <v>5.3398058252427161E-2</v>
       </c>
       <c r="N5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P5" t="str">
-        <f t="shared" ref="P5:P76" si="8">IF(N5&lt;&gt;"NA",(G5+H5)/N5, "NA")</f>
+        <f t="shared" ref="P5:P79" si="8">IF(N5&lt;&gt;"NA",(G5+H5)/N5, "NA")</f>
         <v>NA</v>
       </c>
       <c r="Q5" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>1781165</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>2015</v>
@@ -1575,7 +1702,7 @@
         <v>0.26</v>
       </c>
       <c r="N6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O6">
         <v>250</v>
@@ -1588,19 +1715,22 @@
         <f>IFERROR((G6+H6)/O6, "NA")</f>
         <v>0.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R6">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>1825720</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>2014</v>
@@ -1634,32 +1764,35 @@
         <v>NA</v>
       </c>
       <c r="N7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P7" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
       <c r="Q7" t="str">
-        <f t="shared" ref="Q7:Q78" si="9">IFERROR((G7+H7)/O7, "NA")</f>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" ref="Q7:Q81" si="9">IFERROR((G7+H7)/O7, "NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="R7">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>1912225</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>2016</v>
@@ -1693,7 +1826,7 @@
         <v>0.32499999999999996</v>
       </c>
       <c r="N8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O8">
         <v>100</v>
@@ -1706,19 +1839,22 @@
         <f t="shared" si="9"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>1919810</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>2020</v>
@@ -1752,10 +1888,10 @@
         <v>NA</v>
       </c>
       <c r="N9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P9" t="str">
         <f t="shared" si="8"/>
@@ -1765,19 +1901,22 @@
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>1954750</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>2013</v>
@@ -1786,10 +1925,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="4"/>
@@ -1811,7 +1950,7 @@
         <v>NA</v>
       </c>
       <c r="N10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O10">
         <v>44</v>
@@ -1824,19 +1963,22 @@
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>1954795</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>2018</v>
@@ -1870,7 +2012,7 @@
         <v>7.9365079365079083E-3</v>
       </c>
       <c r="N11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O11">
         <v>98</v>
@@ -1883,19 +2025,22 @@
         <f t="shared" si="9"/>
         <v>0.6428571428571429</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R11">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12">
         <v>2046500</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>2020</v>
@@ -1929,7 +2074,7 @@
         <v>0.25</v>
       </c>
       <c r="N12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O12">
         <v>28</v>
@@ -1942,19 +2087,22 @@
         <f t="shared" si="9"/>
         <v>0.14285714285714285</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R12">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13">
         <v>2101000</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>2018</v>
@@ -1988,10 +2136,10 @@
         <v>NA</v>
       </c>
       <c r="N13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P13" t="str">
         <f t="shared" si="8"/>
@@ -2001,19 +2149,22 @@
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R13">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14">
         <v>2180310</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14">
         <v>2017</v>
@@ -2047,10 +2198,10 @@
         <v>NA</v>
       </c>
       <c r="N14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P14" t="str">
         <f t="shared" si="8"/>
@@ -2060,19 +2211,22 @@
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R14">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15">
         <v>2180832</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>2017</v>
@@ -2106,10 +2260,10 @@
         <v>NA</v>
       </c>
       <c r="N15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P15" t="str">
         <f t="shared" si="8"/>
@@ -2119,19 +2273,22 @@
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R15">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16">
         <v>2909802</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>2018</v>
@@ -2165,10 +2322,10 @@
         <v>NA</v>
       </c>
       <c r="N16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P16" t="str">
         <f t="shared" si="8"/>
@@ -2178,19 +2335,22 @@
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R16">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17">
         <v>2914914</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E17">
         <v>2016</v>
@@ -2224,7 +2384,7 @@
         <v>0.22352941176470587</v>
       </c>
       <c r="N17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O17">
         <v>124</v>
@@ -2237,19 +2397,22 @@
         <f t="shared" si="9"/>
         <v>0.27419354838709675</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R17">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18">
         <v>2920566</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E18">
         <v>2019</v>
@@ -2296,19 +2459,22 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R18">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19">
         <v>2943346</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E19">
         <v>2018</v>
@@ -2342,7 +2508,7 @@
         <v>NA</v>
       </c>
       <c r="N19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -2355,19 +2521,22 @@
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R19">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20">
         <v>2945218</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20">
         <v>2013</v>
@@ -2401,7 +2570,7 @@
         <v>9.2307692307692313E-2</v>
       </c>
       <c r="N20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O20">
         <v>244</v>
@@ -2414,19 +2583,22 @@
         <f t="shared" si="9"/>
         <v>0.37295081967213117</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R20">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
         <v>102</v>
       </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>103</v>
-      </c>
-      <c r="D21" t="s">
-        <v>104</v>
       </c>
       <c r="E21">
         <v>2018</v>
@@ -2473,19 +2645,22 @@
         <f t="shared" si="9"/>
         <v>0.2462686567164179</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R21">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22">
         <v>2960410</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E22">
         <v>2018</v>
@@ -2519,7 +2694,7 @@
         <v>NA</v>
       </c>
       <c r="N22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O22">
         <v>40</v>
@@ -2532,19 +2707,22 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R22">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23">
         <v>2960824</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E23">
         <v>2014</v>
@@ -2578,10 +2756,10 @@
         <v>NA</v>
       </c>
       <c r="N23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P23" t="str">
         <f t="shared" si="8"/>
@@ -2591,19 +2769,22 @@
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R23">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24">
         <v>2964370</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E24">
         <v>2011</v>
@@ -2650,19 +2831,22 @@
         <f t="shared" si="9"/>
         <v>0.3537771129394166</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R24">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
         <v>102</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>103</v>
-      </c>
       <c r="D25" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E25">
         <v>2013</v>
@@ -2709,19 +2893,22 @@
         <f t="shared" si="9"/>
         <v>0.32134831460674157</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R25">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26">
         <v>2981430</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E26">
         <v>2017</v>
@@ -2755,7 +2942,7 @@
         <v>NA</v>
       </c>
       <c r="N26" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O26">
         <v>0</v>
@@ -2768,19 +2955,22 @@
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R26">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>3010000</v>
       </c>
       <c r="D27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E27">
         <v>2019</v>
@@ -2814,10 +3004,10 @@
         <v>NA</v>
       </c>
       <c r="N27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P27" t="str">
         <f t="shared" si="8"/>
@@ -2827,22 +3017,25 @@
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R27">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28">
         <v>3144385</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E28">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="F28" t="b">
         <v>1</v>
@@ -2886,19 +3079,22 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R28">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29">
         <v>3601550</v>
       </c>
       <c r="D29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E29">
         <v>2016</v>
@@ -2945,19 +3141,22 @@
         <f t="shared" si="9"/>
         <v>0.44</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R29">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30">
         <v>3604528</v>
       </c>
       <c r="D30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E30">
         <v>2018</v>
@@ -2991,7 +3190,7 @@
         <v>0.31818181818181823</v>
       </c>
       <c r="N30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O30">
         <v>281</v>
@@ -3004,19 +3203,22 @@
         <f t="shared" si="9"/>
         <v>0.23487544483985764</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R30">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31">
         <v>3608169</v>
       </c>
       <c r="D31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E31">
         <v>2015</v>
@@ -3063,19 +3265,22 @@
         <f t="shared" si="9"/>
         <v>8.4210526315789472E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R31">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32">
         <v>3615187</v>
       </c>
       <c r="D32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E32">
         <v>2020</v>
@@ -3109,7 +3314,7 @@
         <v>0.18627450980392157</v>
       </c>
       <c r="N32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O32">
         <v>440</v>
@@ -3122,19 +3327,22 @@
         <f t="shared" si="9"/>
         <v>0.23181818181818181</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R32">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33">
         <v>3622843</v>
       </c>
       <c r="D33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E33">
         <v>2013</v>
@@ -3168,7 +3376,7 @@
         <v>0.33823529411764708</v>
       </c>
       <c r="N33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O33">
         <v>629</v>
@@ -3181,19 +3389,22 @@
         <f t="shared" si="9"/>
         <v>0.10810810810810811</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R33">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34">
         <v>3623635</v>
       </c>
       <c r="D34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E34">
         <v>2011</v>
@@ -3227,7 +3438,7 @@
         <v>0.359375</v>
       </c>
       <c r="N34" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O34">
         <v>438</v>
@@ -3240,19 +3451,22 @@
         <f t="shared" si="9"/>
         <v>0.14611872146118721</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R34">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C35">
         <v>3626649</v>
       </c>
       <c r="D35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E35">
         <v>2017</v>
@@ -3299,19 +3513,22 @@
         <f t="shared" si="9"/>
         <v>0.33572453371592542</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R35">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C36">
         <v>3634165</v>
       </c>
       <c r="D36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E36">
         <v>2018</v>
@@ -3358,19 +3575,22 @@
         <f t="shared" si="9"/>
         <v>0.27500000000000002</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R36">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37">
         <v>3634220</v>
       </c>
       <c r="D37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E37">
         <v>2018</v>
@@ -3404,7 +3624,7 @@
         <v>0.1785714285714286</v>
       </c>
       <c r="N37" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O37">
         <v>90</v>
@@ -3417,19 +3637,22 @@
         <f t="shared" si="9"/>
         <v>0.31111111111111112</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R37">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38">
         <v>3639089</v>
       </c>
       <c r="D38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E38">
         <v>2017</v>
@@ -3463,7 +3686,7 @@
         <v>0.10360360360360366</v>
       </c>
       <c r="N38" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O38">
         <v>1815</v>
@@ -3476,19 +3699,22 @@
         <f t="shared" si="9"/>
         <v>0.24462809917355371</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R38">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C39">
         <v>3642378</v>
       </c>
       <c r="D39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E39">
         <v>2009</v>
@@ -3535,19 +3761,22 @@
         <f t="shared" si="9"/>
         <v>0.24935732647814909</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R39">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C40">
         <v>3643962</v>
       </c>
       <c r="D40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E40">
         <v>2016</v>
@@ -3581,7 +3810,7 @@
         <v>9.5183486238532122E-2</v>
       </c>
       <c r="N40" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O40">
         <v>3619</v>
@@ -3594,19 +3823,22 @@
         <f t="shared" si="9"/>
         <v>0.24095053882287926</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R40">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41">
         <v>3644149</v>
       </c>
       <c r="D41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E41">
         <v>2008</v>
@@ -3640,7 +3872,7 @@
         <v>-2.989690721649485E-2</v>
       </c>
       <c r="N41" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O41">
         <v>1523</v>
@@ -3653,19 +3885,22 @@
         <f t="shared" si="9"/>
         <v>0.3184504267892318</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R41">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42">
         <v>3644149</v>
       </c>
       <c r="D42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E42">
         <v>2010</v>
@@ -3699,7 +3934,7 @@
         <v>-9.7165991902833981E-2</v>
       </c>
       <c r="N42" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O42">
         <v>1523</v>
@@ -3712,19 +3947,22 @@
         <f t="shared" ref="Q42" si="15">IFERROR((G42+H42)/O42, "NA")</f>
         <v>0.32435981615233095</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R42">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C43">
         <v>3644149</v>
       </c>
       <c r="D43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E43">
         <v>2015</v>
@@ -3758,7 +3996,7 @@
         <v>4.9450549450549497E-2</v>
       </c>
       <c r="N43" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O43">
         <v>1523</v>
@@ -3771,19 +4009,22 @@
         <f t="shared" si="9"/>
         <v>0.35850295469468157</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R43">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C44">
         <v>3646085</v>
       </c>
       <c r="D44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E44">
         <v>2018</v>
@@ -3817,7 +4058,7 @@
         <v>0.11268728084156843</v>
       </c>
       <c r="N44" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O44">
         <v>14849</v>
@@ -3830,19 +4071,22 @@
         <f t="shared" si="9"/>
         <v>0.21126001750959661</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R44">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C45">
         <v>3657287</v>
       </c>
       <c r="D45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E45">
         <v>2013</v>
@@ -3876,7 +4120,7 @@
         <v>0.36956521739130432</v>
       </c>
       <c r="N45" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O45">
         <v>401</v>
@@ -3889,19 +4133,22 @@
         <f t="shared" si="9"/>
         <v>0.17206982543640897</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R45">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C46">
         <v>3659333</v>
       </c>
       <c r="D46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E46">
         <v>2010</v>
@@ -3935,7 +4182,7 @@
         <v>-6.0240963855421714E-2</v>
       </c>
       <c r="N46" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O46">
         <v>1194</v>
@@ -3948,19 +4195,22 @@
         <f t="shared" ref="Q46" si="21">IFERROR((G46+H46)/O46, "NA")</f>
         <v>0.27805695142378561</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R46">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C47">
         <v>3659333</v>
       </c>
       <c r="D47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E47">
         <v>2018</v>
@@ -3994,7 +4244,7 @@
         <v>2.5252525252525304E-2</v>
       </c>
       <c r="N47" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O47">
         <v>1120</v>
@@ -4007,19 +4257,22 @@
         <f t="shared" si="9"/>
         <v>0.35357142857142859</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R47">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C48">
         <v>3659883</v>
       </c>
       <c r="D48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E48">
         <v>2016</v>
@@ -4053,7 +4306,7 @@
         <v>0.4285714285714286</v>
       </c>
       <c r="N48" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O48">
         <v>291</v>
@@ -4066,19 +4319,22 @@
         <f t="shared" si="9"/>
         <v>0.33676975945017185</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R48">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C49">
         <v>3660576</v>
       </c>
       <c r="D49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E49">
         <v>2014</v>
@@ -4112,7 +4368,7 @@
         <v>0.40579710144927539</v>
       </c>
       <c r="N49" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O49">
         <v>2602</v>
@@ -4125,19 +4381,22 @@
         <f t="shared" si="9"/>
         <v>5.3036126056879324E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R49">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C50">
         <v>3664771</v>
       </c>
       <c r="D50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E50">
         <v>2017</v>
@@ -4171,7 +4430,7 @@
         <v>0.29668049792531115</v>
       </c>
       <c r="N50" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O50">
         <v>946</v>
@@ -4184,19 +4443,22 @@
         <f t="shared" si="9"/>
         <v>0.2547568710359408</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R50">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C51">
         <v>3666322</v>
       </c>
       <c r="D51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E51">
         <v>2010</v>
@@ -4230,7 +4492,7 @@
         <v>1.8614718614718639E-2</v>
       </c>
       <c r="N51" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O51">
         <v>6681</v>
@@ -4243,56 +4505,59 @@
         <f t="shared" si="9"/>
         <v>0.34575662325999101</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R51">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B52" t="s">
-        <v>40</v>
-      </c>
-      <c r="C52">
-        <v>3676881</v>
+        <v>39</v>
+      </c>
+      <c r="C52" t="s">
+        <v>116</v>
       </c>
       <c r="D52" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="E52">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="F52" t="b">
         <v>1</v>
       </c>
       <c r="G52">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="H52">
-        <v>76</v>
+        <v>198</v>
       </c>
       <c r="I52">
         <f t="shared" si="4"/>
-        <v>0.57541899441340782</v>
+        <v>9.5890410958904104E-2</v>
       </c>
       <c r="J52">
         <f t="shared" si="5"/>
-        <v>0.15083798882681565</v>
+        <v>-0.80821917808219168</v>
       </c>
       <c r="K52">
         <v>0.5</v>
       </c>
       <c r="L52" t="str">
         <f t="shared" si="6"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="M52">
         <f t="shared" si="7"/>
-        <v>7.5418994413407825E-2</v>
+        <v>-0.4041095890410959</v>
       </c>
       <c r="N52" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O52">
-        <v>600</v>
+        <v>2979</v>
       </c>
       <c r="P52" t="str">
         <f t="shared" si="8"/>
@@ -4300,92 +4565,98 @@
       </c>
       <c r="Q52">
         <f t="shared" si="9"/>
-        <v>0.29833333333333334</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+        <v>7.3514602215508554E-2</v>
+      </c>
+      <c r="R52">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="C53">
-        <v>3711560</v>
+        <v>3676881</v>
       </c>
       <c r="D53" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E53">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F53" t="b">
-        <v>0</v>
-      </c>
-      <c r="G53" t="s">
-        <v>106</v>
-      </c>
-      <c r="H53" t="s">
-        <v>106</v>
-      </c>
-      <c r="I53" t="str">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>103</v>
+      </c>
+      <c r="H53">
+        <v>76</v>
+      </c>
+      <c r="I53">
         <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="J53" t="str">
+        <v>0.57541899441340782</v>
+      </c>
+      <c r="J53">
         <f t="shared" si="5"/>
-        <v>NA</v>
+        <v>0.15083798882681565</v>
       </c>
       <c r="K53">
         <v>0.5</v>
       </c>
       <c r="L53" t="str">
         <f t="shared" si="6"/>
-        <v>NA</v>
-      </c>
-      <c r="M53" t="str">
+        <v>YES</v>
+      </c>
+      <c r="M53">
         <f t="shared" si="7"/>
-        <v>NA</v>
+        <v>7.5418994413407825E-2</v>
       </c>
       <c r="N53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O53">
-        <v>89</v>
+        <v>600</v>
       </c>
       <c r="P53" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="Q53" t="str">
+      <c r="Q53">
         <f t="shared" si="9"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.29833333333333334</v>
+      </c>
+      <c r="R53">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B54" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C54">
-        <v>3804740</v>
+        <v>3711560</v>
       </c>
       <c r="D54" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E54">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H54" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I54" t="str">
         <f t="shared" si="4"/>
@@ -4407,10 +4678,10 @@
         <v>NA</v>
       </c>
       <c r="N54" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O54">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="P54" t="str">
         <f t="shared" si="8"/>
@@ -4420,157 +4691,166 @@
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R54">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B55" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55">
+        <v>3804740</v>
+      </c>
+      <c r="D55" t="s">
+        <v>64</v>
+      </c>
+      <c r="E55">
+        <v>2021</v>
+      </c>
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+      <c r="G55" t="s">
+        <v>104</v>
+      </c>
+      <c r="H55" t="s">
+        <v>104</v>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" si="4"/>
+        <v>NA</v>
+      </c>
+      <c r="J55" t="str">
+        <f t="shared" si="5"/>
+        <v>NA</v>
+      </c>
+      <c r="K55">
+        <v>0.5</v>
+      </c>
+      <c r="L55" t="str">
+        <f t="shared" si="6"/>
+        <v>NA</v>
+      </c>
+      <c r="M55" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="N55" t="s">
+        <v>104</v>
+      </c>
+      <c r="O55">
+        <v>6</v>
+      </c>
+      <c r="P55" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="Q55" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="R55">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" t="s">
+        <v>110</v>
+      </c>
+      <c r="D56" t="s">
+        <v>114</v>
+      </c>
+      <c r="E56">
+        <v>2018</v>
+      </c>
+      <c r="F56" t="b">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>17</v>
+      </c>
+      <c r="H56">
+        <v>209</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="4"/>
+        <v>7.5221238938053103E-2</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="5"/>
+        <v>-0.84955752212389379</v>
+      </c>
+      <c r="K56">
+        <v>0.5</v>
+      </c>
+      <c r="L56" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="7"/>
+        <v>-0.4247787610619469</v>
+      </c>
+      <c r="N56" t="s">
+        <v>104</v>
+      </c>
+      <c r="O56">
+        <v>542</v>
+      </c>
+      <c r="P56" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="9"/>
+        <v>0.41697416974169743</v>
+      </c>
+      <c r="R56">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>101</v>
+      </c>
+      <c r="B57" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57">
+        <v>3901742</v>
+      </c>
+      <c r="D57" t="s">
         <v>66</v>
       </c>
-      <c r="C55">
-        <v>3901742</v>
-      </c>
-      <c r="D55" t="s">
-        <v>67</v>
-      </c>
-      <c r="E55">
+      <c r="E57">
         <v>2019</v>
       </c>
-      <c r="F55" t="b">
-        <v>1</v>
-      </c>
-      <c r="G55">
+      <c r="F57" t="b">
+        <v>1</v>
+      </c>
+      <c r="G57">
         <v>843</v>
       </c>
-      <c r="H55">
+      <c r="H57">
         <v>479</v>
       </c>
-      <c r="I55">
+      <c r="I57">
         <f t="shared" si="4"/>
         <v>0.63767019667170954</v>
       </c>
-      <c r="J55">
+      <c r="J57">
         <f t="shared" si="5"/>
         <v>0.27534039334341909</v>
-      </c>
-      <c r="K55">
-        <v>0.5</v>
-      </c>
-      <c r="L55" t="str">
-        <f t="shared" si="6"/>
-        <v>YES</v>
-      </c>
-      <c r="M55">
-        <f t="shared" si="7"/>
-        <v>0.13767019667170954</v>
-      </c>
-      <c r="N55" t="s">
-        <v>106</v>
-      </c>
-      <c r="O55">
-        <v>5039</v>
-      </c>
-      <c r="P55" t="str">
-        <f t="shared" si="8"/>
-        <v>NA</v>
-      </c>
-      <c r="Q55">
-        <f t="shared" si="9"/>
-        <v>0.26235364159555469</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>102</v>
-      </c>
-      <c r="B56" t="s">
-        <v>66</v>
-      </c>
-      <c r="C56">
-        <v>3908168</v>
-      </c>
-      <c r="D56" t="s">
-        <v>68</v>
-      </c>
-      <c r="E56">
-        <v>2013</v>
-      </c>
-      <c r="F56" t="b">
-        <v>1</v>
-      </c>
-      <c r="G56">
-        <v>63</v>
-      </c>
-      <c r="H56">
-        <v>135</v>
-      </c>
-      <c r="I56">
-        <f>IF(F56 = TRUE, G56/(G56+H56), "NA")</f>
-        <v>0.31818181818181818</v>
-      </c>
-      <c r="J56">
-        <f>IF(F56 = TRUE,(G56)/(G56+H56) - (H56)/(G56+H56), "NA")</f>
-        <v>-0.36363636363636359</v>
-      </c>
-      <c r="K56">
-        <v>0.5</v>
-      </c>
-      <c r="L56" t="str">
-        <f t="shared" ref="L56" si="22">IF(I56&lt;&gt;"NA",IF(I56&gt;K56,"YES","NO"),"NA")</f>
-        <v>NO</v>
-      </c>
-      <c r="M56">
-        <f>IF(F56=TRUE,I56-K56,"NA")</f>
-        <v>-0.18181818181818182</v>
-      </c>
-      <c r="N56" t="s">
-        <v>106</v>
-      </c>
-      <c r="O56">
-        <v>518</v>
-      </c>
-      <c r="P56" t="str">
-        <f>IF(N56&lt;&gt;"NA",(G56+H56)/N56, "NA")</f>
-        <v>NA</v>
-      </c>
-      <c r="Q56">
-        <f>IFERROR((G56+H56)/O56, "NA")</f>
-        <v>0.38223938223938225</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>102</v>
-      </c>
-      <c r="B57" t="s">
-        <v>66</v>
-      </c>
-      <c r="C57">
-        <v>3908168</v>
-      </c>
-      <c r="D57" t="s">
-        <v>68</v>
-      </c>
-      <c r="E57">
-        <v>2017</v>
-      </c>
-      <c r="F57" t="b">
-        <v>1</v>
-      </c>
-      <c r="G57">
-        <v>106</v>
-      </c>
-      <c r="H57">
-        <v>88</v>
-      </c>
-      <c r="I57">
-        <f>IF(F57 = TRUE, G57/(G57+H57), "NA")</f>
-        <v>0.54639175257731953</v>
-      </c>
-      <c r="J57">
-        <f>IF(F57 = TRUE,(G57)/(G57+H57) - (H57)/(G57+H57), "NA")</f>
-        <v>9.2783505154639123E-2</v>
       </c>
       <c r="K57">
         <v>0.5</v>
@@ -4580,115 +4860,121 @@
         <v>YES</v>
       </c>
       <c r="M57">
-        <f>IF(F57=TRUE,I57-K57,"NA")</f>
-        <v>4.6391752577319534E-2</v>
+        <f t="shared" si="7"/>
+        <v>0.13767019667170954</v>
       </c>
       <c r="N57" t="s">
+        <v>104</v>
+      </c>
+      <c r="O57">
+        <v>5039</v>
+      </c>
+      <c r="P57" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="9"/>
+        <v>0.26235364159555469</v>
+      </c>
+      <c r="R57">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>101</v>
+      </c>
+      <c r="B58" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58">
+        <v>3908168</v>
+      </c>
+      <c r="D58" t="s">
+        <v>67</v>
+      </c>
+      <c r="E58">
+        <v>2013</v>
+      </c>
+      <c r="F58" t="b">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>63</v>
+      </c>
+      <c r="H58">
+        <v>135</v>
+      </c>
+      <c r="I58">
+        <f>IF(F58 = TRUE, G58/(G58+H58), "NA")</f>
+        <v>0.31818181818181818</v>
+      </c>
+      <c r="J58">
+        <f>IF(F58 = TRUE,(G58)/(G58+H58) - (H58)/(G58+H58), "NA")</f>
+        <v>-0.36363636363636359</v>
+      </c>
+      <c r="K58">
+        <v>0.5</v>
+      </c>
+      <c r="L58" t="str">
+        <f t="shared" ref="L58" si="22">IF(I58&lt;&gt;"NA",IF(I58&gt;K58,"YES","NO"),"NA")</f>
+        <v>NO</v>
+      </c>
+      <c r="M58">
+        <f>IF(F58=TRUE,I58-K58,"NA")</f>
+        <v>-0.18181818181818182</v>
+      </c>
+      <c r="N58" t="s">
+        <v>104</v>
+      </c>
+      <c r="O58">
+        <v>518</v>
+      </c>
+      <c r="P58" t="str">
+        <f>IF(N58&lt;&gt;"NA",(G58+H58)/N58, "NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="Q58">
+        <f>IFERROR((G58+H58)/O58, "NA")</f>
+        <v>0.38223938223938225</v>
+      </c>
+      <c r="R58">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>101</v>
+      </c>
+      <c r="B59" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59">
+        <v>3908168</v>
+      </c>
+      <c r="D59" t="s">
+        <v>67</v>
+      </c>
+      <c r="E59">
+        <v>2017</v>
+      </c>
+      <c r="F59" t="b">
+        <v>1</v>
+      </c>
+      <c r="G59">
         <v>106</v>
       </c>
-      <c r="O57">
-        <v>518</v>
-      </c>
-      <c r="P57" t="str">
-        <f>IF(N57&lt;&gt;"NA",(G57+H57)/N57, "NA")</f>
-        <v>NA</v>
-      </c>
-      <c r="Q57">
-        <f>IFERROR((G57+H57)/O57, "NA")</f>
-        <v>0.37451737451737449</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>102</v>
-      </c>
-      <c r="B58" t="s">
-        <v>66</v>
-      </c>
-      <c r="C58">
-        <v>3913834</v>
-      </c>
-      <c r="D58" t="s">
-        <v>69</v>
-      </c>
-      <c r="E58">
-        <v>2014</v>
-      </c>
-      <c r="F58" t="b">
-        <v>1</v>
-      </c>
-      <c r="G58">
-        <v>22</v>
-      </c>
-      <c r="H58">
-        <v>5</v>
-      </c>
-      <c r="I58">
-        <f t="shared" si="4"/>
-        <v>0.81481481481481477</v>
-      </c>
-      <c r="J58">
-        <f t="shared" si="5"/>
-        <v>0.62962962962962954</v>
-      </c>
-      <c r="K58">
-        <v>0.5</v>
-      </c>
-      <c r="L58" t="str">
-        <f t="shared" si="6"/>
-        <v>YES</v>
-      </c>
-      <c r="M58">
-        <f t="shared" si="7"/>
-        <v>0.31481481481481477</v>
-      </c>
-      <c r="N58" t="s">
-        <v>106</v>
-      </c>
-      <c r="O58">
-        <v>150</v>
-      </c>
-      <c r="P58" t="str">
-        <f t="shared" si="8"/>
-        <v>NA</v>
-      </c>
-      <c r="Q58">
-        <f t="shared" si="9"/>
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>102</v>
-      </c>
-      <c r="B59" t="s">
-        <v>66</v>
-      </c>
-      <c r="C59">
-        <v>3927944</v>
-      </c>
-      <c r="D59" t="s">
-        <v>70</v>
-      </c>
-      <c r="E59">
-        <v>2012</v>
-      </c>
-      <c r="F59" t="b">
-        <v>1</v>
-      </c>
-      <c r="G59">
-        <v>1085</v>
-      </c>
       <c r="H59">
-        <v>858</v>
+        <v>88</v>
       </c>
       <c r="I59">
-        <f t="shared" si="4"/>
-        <v>0.55841482243952656</v>
+        <f>IF(F59 = TRUE, G59/(G59+H59), "NA")</f>
+        <v>0.54639175257731953</v>
       </c>
       <c r="J59">
-        <f t="shared" si="5"/>
-        <v>0.11682964487905306</v>
+        <f>IF(F59 = TRUE,(G59)/(G59+H59) - (H59)/(G59+H59), "NA")</f>
+        <v>9.2783505154639123E-2</v>
       </c>
       <c r="K59">
         <v>0.5</v>
@@ -4698,132 +4984,138 @@
         <v>YES</v>
       </c>
       <c r="M59">
+        <f>IF(F59=TRUE,I59-K59,"NA")</f>
+        <v>4.6391752577319534E-2</v>
+      </c>
+      <c r="N59" t="s">
+        <v>104</v>
+      </c>
+      <c r="O59">
+        <v>518</v>
+      </c>
+      <c r="P59" t="str">
+        <f>IF(N59&lt;&gt;"NA",(G59+H59)/N59, "NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="Q59">
+        <f>IFERROR((G59+H59)/O59, "NA")</f>
+        <v>0.37451737451737449</v>
+      </c>
+      <c r="R59">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>101</v>
+      </c>
+      <c r="B60" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60">
+        <v>3913834</v>
+      </c>
+      <c r="D60" t="s">
+        <v>68</v>
+      </c>
+      <c r="E60">
+        <v>2014</v>
+      </c>
+      <c r="F60" t="b">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>22</v>
+      </c>
+      <c r="H60">
+        <v>5</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="4"/>
+        <v>0.81481481481481477</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="5"/>
+        <v>0.62962962962962954</v>
+      </c>
+      <c r="K60">
+        <v>0.5</v>
+      </c>
+      <c r="L60" t="str">
+        <f t="shared" si="6"/>
+        <v>YES</v>
+      </c>
+      <c r="M60">
         <f t="shared" si="7"/>
-        <v>5.8414822439526559E-2</v>
-      </c>
-      <c r="N59" t="s">
-        <v>106</v>
-      </c>
-      <c r="O59">
-        <v>3726</v>
-      </c>
-      <c r="P59" t="str">
+        <v>0.31481481481481477</v>
+      </c>
+      <c r="N60" t="s">
+        <v>104</v>
+      </c>
+      <c r="O60">
+        <v>150</v>
+      </c>
+      <c r="P60" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="Q59">
+      <c r="Q60">
         <f t="shared" si="9"/>
-        <v>0.52147074610842725</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>102</v>
-      </c>
-      <c r="B60" t="s">
-        <v>66</v>
-      </c>
-      <c r="C60">
-        <v>3943596</v>
-      </c>
-      <c r="D60" t="s">
-        <v>71</v>
-      </c>
-      <c r="E60">
-        <v>2015</v>
-      </c>
-      <c r="F60" t="b">
-        <v>1</v>
-      </c>
-      <c r="G60">
-        <v>23</v>
-      </c>
-      <c r="H60">
-        <v>29</v>
-      </c>
-      <c r="I60">
-        <f t="shared" ref="I60" si="23">IF(F60 = TRUE, G60/(G60+H60), "NA")</f>
-        <v>0.44230769230769229</v>
-      </c>
-      <c r="J60">
-        <f t="shared" ref="J60" si="24">IF(F60 = TRUE,(G60)/(G60+H60) - (H60)/(G60+H60), "NA")</f>
-        <v>-0.11538461538461542</v>
-      </c>
-      <c r="K60">
-        <v>0.5</v>
-      </c>
-      <c r="L60" t="str">
-        <f t="shared" ref="L60" si="25">IF(I60&lt;&gt;"NA",IF(I60&gt;K60,"YES","NO"),"NA")</f>
-        <v>NO</v>
-      </c>
-      <c r="M60">
-        <f t="shared" ref="M60" si="26">IF(F60=TRUE,I60-K60,"NA")</f>
-        <v>-5.7692307692307709E-2</v>
-      </c>
-      <c r="N60" t="s">
-        <v>106</v>
-      </c>
-      <c r="O60">
-        <v>151</v>
-      </c>
-      <c r="P60" t="str">
-        <f t="shared" ref="P60" si="27">IF(N60&lt;&gt;"NA",(G60+H60)/N60, "NA")</f>
-        <v>NA</v>
-      </c>
-      <c r="Q60">
-        <f t="shared" ref="Q60" si="28">IFERROR((G60+H60)/O60, "NA")</f>
-        <v>0.3443708609271523</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.18</v>
+      </c>
+      <c r="R60">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B61" t="s">
-        <v>66</v>
-      </c>
-      <c r="C61">
-        <v>3943596</v>
+        <v>65</v>
+      </c>
+      <c r="C61" t="s">
+        <v>110</v>
       </c>
       <c r="D61" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="E61">
-        <v>2018</v>
+        <v>2003</v>
       </c>
       <c r="F61" t="b">
         <v>1</v>
       </c>
       <c r="G61">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="H61">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I61">
         <f t="shared" si="4"/>
-        <v>0.7142857142857143</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="J61">
         <f t="shared" si="5"/>
-        <v>0.4285714285714286</v>
+        <v>-0.84615384615384626</v>
       </c>
       <c r="K61">
         <v>0.5</v>
       </c>
       <c r="L61" t="str">
         <f t="shared" si="6"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="M61">
         <f t="shared" si="7"/>
-        <v>0.2142857142857143</v>
+        <v>-0.42307692307692307</v>
       </c>
       <c r="N61" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O61">
-        <v>151</v>
+        <v>221</v>
       </c>
       <c r="P61" t="str">
         <f t="shared" si="8"/>
@@ -4831,41 +5123,44 @@
       </c>
       <c r="Q61">
         <f t="shared" si="9"/>
-        <v>0.27814569536423839</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="R61">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B62" t="s">
-        <v>66</v>
-      </c>
-      <c r="C62" t="s">
-        <v>114</v>
+        <v>65</v>
+      </c>
+      <c r="C62">
+        <v>3927944</v>
       </c>
       <c r="D62" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="E62">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="F62" t="b">
         <v>1</v>
       </c>
       <c r="G62">
-        <v>53</v>
+        <v>1085</v>
       </c>
       <c r="H62">
-        <v>46</v>
+        <v>858</v>
       </c>
       <c r="I62">
         <f t="shared" si="4"/>
-        <v>0.53535353535353536</v>
+        <v>0.55841482243952656</v>
       </c>
       <c r="J62">
         <f t="shared" si="5"/>
-        <v>7.0707070707070718E-2</v>
+        <v>0.11682964487905306</v>
       </c>
       <c r="K62">
         <v>0.5</v>
@@ -4876,13 +5171,13 @@
       </c>
       <c r="M62">
         <f t="shared" si="7"/>
-        <v>3.5353535353535359E-2</v>
+        <v>5.8414822439526559E-2</v>
       </c>
       <c r="N62" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O62">
-        <v>392</v>
+        <v>3726</v>
       </c>
       <c r="P62" t="str">
         <f t="shared" si="8"/>
@@ -4890,100 +5185,106 @@
       </c>
       <c r="Q62">
         <f t="shared" si="9"/>
-        <v>0.25255102040816324</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.52147074610842725</v>
+      </c>
+      <c r="R62">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C63">
-        <v>3958800</v>
+        <v>3943596</v>
       </c>
       <c r="D63" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E63">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="F63" t="b">
         <v>1</v>
       </c>
       <c r="G63">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H63">
+        <v>29</v>
+      </c>
+      <c r="I63">
+        <f t="shared" ref="I63" si="23">IF(F63 = TRUE, G63/(G63+H63), "NA")</f>
+        <v>0.44230769230769229</v>
+      </c>
+      <c r="J63">
+        <f t="shared" ref="J63" si="24">IF(F63 = TRUE,(G63)/(G63+H63) - (H63)/(G63+H63), "NA")</f>
+        <v>-0.11538461538461542</v>
+      </c>
+      <c r="K63">
+        <v>0.5</v>
+      </c>
+      <c r="L63" t="str">
+        <f t="shared" ref="L63" si="25">IF(I63&lt;&gt;"NA",IF(I63&gt;K63,"YES","NO"),"NA")</f>
+        <v>NO</v>
+      </c>
+      <c r="M63">
+        <f t="shared" ref="M63" si="26">IF(F63=TRUE,I63-K63,"NA")</f>
+        <v>-5.7692307692307709E-2</v>
+      </c>
+      <c r="N63" t="s">
+        <v>104</v>
+      </c>
+      <c r="O63">
+        <v>151</v>
+      </c>
+      <c r="P63" t="str">
+        <f t="shared" ref="P63" si="27">IF(N63&lt;&gt;"NA",(G63+H63)/N63, "NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" ref="Q63" si="28">IFERROR((G63+H63)/O63, "NA")</f>
+        <v>0.3443708609271523</v>
+      </c>
+      <c r="R63">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>101</v>
+      </c>
+      <c r="B64" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64">
+        <v>3943596</v>
+      </c>
+      <c r="D64" t="s">
+        <v>70</v>
+      </c>
+      <c r="E64">
+        <v>2018</v>
+      </c>
+      <c r="F64" t="b">
+        <v>1</v>
+      </c>
+      <c r="G64">
         <v>30</v>
       </c>
-      <c r="I63">
-        <f t="shared" si="4"/>
-        <v>0.55882352941176472</v>
-      </c>
-      <c r="J63">
-        <f t="shared" si="5"/>
-        <v>0.11764705882352944</v>
-      </c>
-      <c r="K63">
-        <v>0.5</v>
-      </c>
-      <c r="L63" t="str">
-        <f t="shared" si="6"/>
-        <v>YES</v>
-      </c>
-      <c r="M63">
-        <f t="shared" si="7"/>
-        <v>5.8823529411764719E-2</v>
-      </c>
-      <c r="N63">
-        <v>165</v>
-      </c>
-      <c r="O63">
-        <v>270</v>
-      </c>
-      <c r="P63">
-        <f t="shared" si="8"/>
-        <v>0.41212121212121211</v>
-      </c>
-      <c r="Q63">
-        <f t="shared" si="9"/>
-        <v>0.25185185185185183</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>102</v>
-      </c>
-      <c r="B64" t="s">
-        <v>66</v>
-      </c>
-      <c r="C64">
-        <v>3969666</v>
-      </c>
-      <c r="D64" t="s">
-        <v>73</v>
-      </c>
-      <c r="E64">
-        <v>2011</v>
-      </c>
-      <c r="F64" t="b">
-        <v>1</v>
-      </c>
-      <c r="G64">
-        <v>43</v>
-      </c>
       <c r="H64">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I64">
         <f t="shared" si="4"/>
-        <v>0.75438596491228072</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="J64">
         <f t="shared" si="5"/>
-        <v>0.50877192982456143</v>
+        <v>0.4285714285714286</v>
       </c>
       <c r="K64">
         <v>0.5</v>
@@ -4994,13 +5295,13 @@
       </c>
       <c r="M64">
         <f t="shared" si="7"/>
-        <v>0.25438596491228072</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="N64" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O64">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="P64" t="str">
         <f t="shared" si="8"/>
@@ -5008,41 +5309,44 @@
       </c>
       <c r="Q64">
         <f t="shared" si="9"/>
-        <v>0.44186046511627908</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.27814569536423839</v>
+      </c>
+      <c r="R64">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
-      </c>
-      <c r="C65">
-        <v>3970072</v>
+        <v>65</v>
+      </c>
+      <c r="C65" t="s">
+        <v>110</v>
       </c>
       <c r="D65" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="E65">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="F65" t="b">
         <v>1</v>
       </c>
       <c r="G65">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="H65">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="I65">
         <f t="shared" si="4"/>
-        <v>0.66666666666666663</v>
+        <v>0.53535353535353536</v>
       </c>
       <c r="J65">
         <f t="shared" si="5"/>
-        <v>0.33333333333333331</v>
+        <v>7.0707070707070718E-2</v>
       </c>
       <c r="K65">
         <v>0.5</v>
@@ -5053,13 +5357,13 @@
       </c>
       <c r="M65">
         <f t="shared" si="7"/>
-        <v>0.16666666666666663</v>
+        <v>3.5353535353535359E-2</v>
       </c>
       <c r="N65" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O65">
-        <v>129</v>
+        <v>392</v>
       </c>
       <c r="P65" t="str">
         <f t="shared" si="8"/>
@@ -5067,41 +5371,44 @@
       </c>
       <c r="Q65">
         <f t="shared" si="9"/>
-        <v>0.2558139534883721</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.25255102040816324</v>
+      </c>
+      <c r="R65">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C66">
-        <v>3972998</v>
+        <v>3958800</v>
       </c>
       <c r="D66" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E66">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="F66" t="b">
         <v>1</v>
       </c>
       <c r="G66">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="H66">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I66">
         <f t="shared" si="4"/>
-        <v>0.52083333333333337</v>
+        <v>0.55882352941176472</v>
       </c>
       <c r="J66">
         <f t="shared" si="5"/>
-        <v>4.1666666666666685E-2</v>
+        <v>0.11764705882352944</v>
       </c>
       <c r="K66">
         <v>0.5</v>
@@ -5112,114 +5419,120 @@
       </c>
       <c r="M66">
         <f t="shared" si="7"/>
-        <v>2.083333333333337E-2</v>
-      </c>
-      <c r="N66" t="s">
-        <v>106</v>
+        <v>5.8823529411764719E-2</v>
+      </c>
+      <c r="N66">
+        <v>165</v>
       </c>
       <c r="O66">
-        <v>283</v>
-      </c>
-      <c r="P66" t="str">
+        <v>270</v>
+      </c>
+      <c r="P66">
         <f t="shared" si="8"/>
-        <v>NA</v>
+        <v>0.41212121212121211</v>
       </c>
       <c r="Q66">
         <f t="shared" si="9"/>
-        <v>0.16961130742049471</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.25185185185185183</v>
+      </c>
+      <c r="R66">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C67">
-        <v>3978848</v>
+        <v>3969666</v>
       </c>
       <c r="D67" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E67">
+        <v>2011</v>
+      </c>
+      <c r="F67" t="b">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>43</v>
+      </c>
+      <c r="H67">
+        <v>14</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="4"/>
+        <v>0.75438596491228072</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="5"/>
+        <v>0.50877192982456143</v>
+      </c>
+      <c r="K67">
+        <v>0.5</v>
+      </c>
+      <c r="L67" t="str">
+        <f t="shared" si="6"/>
+        <v>YES</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="7"/>
+        <v>0.25438596491228072</v>
+      </c>
+      <c r="N67" t="s">
+        <v>104</v>
+      </c>
+      <c r="O67">
+        <v>129</v>
+      </c>
+      <c r="P67" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" si="9"/>
+        <v>0.44186046511627908</v>
+      </c>
+      <c r="R67">
         <v>2012</v>
       </c>
-      <c r="F67" t="b">
-        <v>1</v>
-      </c>
-      <c r="G67">
-        <v>57</v>
-      </c>
-      <c r="H67">
-        <v>60</v>
-      </c>
-      <c r="I67">
-        <f t="shared" ref="I67" si="29">IF(F67 = TRUE, G67/(G67+H67), "NA")</f>
-        <v>0.48717948717948717</v>
-      </c>
-      <c r="J67">
-        <f t="shared" ref="J67" si="30">IF(F67 = TRUE,(G67)/(G67+H67) - (H67)/(G67+H67), "NA")</f>
-        <v>-2.5641025641025605E-2</v>
-      </c>
-      <c r="K67">
-        <v>0.5</v>
-      </c>
-      <c r="L67" t="str">
-        <f t="shared" ref="L67" si="31">IF(I67&lt;&gt;"NA",IF(I67&gt;K67,"YES","NO"),"NA")</f>
-        <v>NO</v>
-      </c>
-      <c r="M67">
-        <f t="shared" ref="M67" si="32">IF(F67=TRUE,I67-K67,"NA")</f>
-        <v>-1.282051282051283E-2</v>
-      </c>
-      <c r="N67" t="s">
-        <v>106</v>
-      </c>
-      <c r="O67">
-        <v>222</v>
-      </c>
-      <c r="P67" t="str">
-        <f t="shared" ref="P67" si="33">IF(N67&lt;&gt;"NA",(G67+H67)/N67, "NA")</f>
-        <v>NA</v>
-      </c>
-      <c r="Q67">
-        <f t="shared" ref="Q67" si="34">IFERROR((G67+H67)/O67, "NA")</f>
-        <v>0.52702702702702697</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C68">
-        <v>3978848</v>
+        <v>3970072</v>
       </c>
       <c r="D68" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E68">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="F68" t="b">
         <v>1</v>
       </c>
       <c r="G68">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="H68">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="I68">
         <f t="shared" si="4"/>
-        <v>0.68055555555555558</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J68">
         <f t="shared" si="5"/>
-        <v>0.36111111111111116</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K68">
         <v>0.5</v>
@@ -5230,13 +5543,13 @@
       </c>
       <c r="M68">
         <f t="shared" si="7"/>
-        <v>0.18055555555555558</v>
+        <v>0.16666666666666663</v>
       </c>
       <c r="N68" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O68">
-        <v>222</v>
+        <v>129</v>
       </c>
       <c r="P68" t="str">
         <f t="shared" si="8"/>
@@ -5244,226 +5557,346 @@
       </c>
       <c r="Q68">
         <f t="shared" si="9"/>
-        <v>0.32432432432432434</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.2558139534883721</v>
+      </c>
+      <c r="R68">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>101</v>
+      </c>
       <c r="B69" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C69">
-        <v>4117800</v>
+        <v>3972998</v>
       </c>
       <c r="D69" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E69">
-        <v>2018</v>
-      </c>
-      <c r="I69" t="str">
+        <v>2017</v>
+      </c>
+      <c r="F69" t="b">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>25</v>
+      </c>
+      <c r="H69">
+        <v>23</v>
+      </c>
+      <c r="I69">
         <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="J69" t="str">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="J69">
         <f t="shared" si="5"/>
-        <v>NA</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="K69">
         <v>0.5</v>
       </c>
       <c r="L69" t="str">
         <f t="shared" si="6"/>
-        <v>NA</v>
-      </c>
-      <c r="M69" t="str">
+        <v>YES</v>
+      </c>
+      <c r="M69">
         <f t="shared" si="7"/>
-        <v>NA</v>
-      </c>
-      <c r="P69" t="e">
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="N69" t="s">
+        <v>104</v>
+      </c>
+      <c r="O69">
+        <v>283</v>
+      </c>
+      <c r="P69" t="str">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q69" t="str">
+        <v>NA</v>
+      </c>
+      <c r="Q69">
         <f t="shared" si="9"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.16961130742049471</v>
+      </c>
+      <c r="R69">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>101</v>
+      </c>
       <c r="B70" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C70">
-        <v>4274744</v>
+        <v>3978848</v>
       </c>
       <c r="D70" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E70">
-        <v>2017</v>
-      </c>
-      <c r="I70" t="str">
+        <v>2012</v>
+      </c>
+      <c r="F70" t="b">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>57</v>
+      </c>
+      <c r="H70">
+        <v>60</v>
+      </c>
+      <c r="I70">
+        <f t="shared" ref="I70" si="29">IF(F70 = TRUE, G70/(G70+H70), "NA")</f>
+        <v>0.48717948717948717</v>
+      </c>
+      <c r="J70">
+        <f t="shared" ref="J70" si="30">IF(F70 = TRUE,(G70)/(G70+H70) - (H70)/(G70+H70), "NA")</f>
+        <v>-2.5641025641025605E-2</v>
+      </c>
+      <c r="K70">
+        <v>0.5</v>
+      </c>
+      <c r="L70" t="str">
+        <f t="shared" ref="L70" si="31">IF(I70&lt;&gt;"NA",IF(I70&gt;K70,"YES","NO"),"NA")</f>
+        <v>NO</v>
+      </c>
+      <c r="M70">
+        <f t="shared" ref="M70" si="32">IF(F70=TRUE,I70-K70,"NA")</f>
+        <v>-1.282051282051283E-2</v>
+      </c>
+      <c r="N70" t="s">
+        <v>104</v>
+      </c>
+      <c r="O70">
+        <v>222</v>
+      </c>
+      <c r="P70" t="str">
+        <f t="shared" ref="P70" si="33">IF(N70&lt;&gt;"NA",(G70+H70)/N70, "NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" ref="Q70" si="34">IFERROR((G70+H70)/O70, "NA")</f>
+        <v>0.52702702702702697</v>
+      </c>
+      <c r="R70">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>101</v>
+      </c>
+      <c r="B71" t="s">
+        <v>65</v>
+      </c>
+      <c r="C71">
+        <v>3978848</v>
+      </c>
+      <c r="D71" t="s">
+        <v>75</v>
+      </c>
+      <c r="E71">
+        <v>2013</v>
+      </c>
+      <c r="F71" t="b">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>49</v>
+      </c>
+      <c r="H71">
+        <v>23</v>
+      </c>
+      <c r="I71">
         <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="J70" t="str">
+        <v>0.68055555555555558</v>
+      </c>
+      <c r="J71">
         <f t="shared" si="5"/>
-        <v>NA</v>
-      </c>
-      <c r="K70">
-        <v>0.5</v>
-      </c>
-      <c r="L70" t="str">
-        <f t="shared" si="6"/>
-        <v>NA</v>
-      </c>
-      <c r="M70" t="str">
-        <f t="shared" si="7"/>
-        <v>NA</v>
-      </c>
-      <c r="P70" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q70" t="str">
-        <f t="shared" si="9"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>81</v>
-      </c>
-      <c r="C71">
-        <v>4656420</v>
-      </c>
-      <c r="D71" t="s">
-        <v>82</v>
-      </c>
-      <c r="E71">
-        <v>2014</v>
-      </c>
-      <c r="I71" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="J71" t="str">
-        <f t="shared" si="5"/>
-        <v>NA</v>
+        <v>0.36111111111111116</v>
       </c>
       <c r="K71">
         <v>0.5</v>
       </c>
       <c r="L71" t="str">
         <f t="shared" si="6"/>
-        <v>NA</v>
-      </c>
-      <c r="M71" t="str">
+        <v>YES</v>
+      </c>
+      <c r="M71">
         <f t="shared" si="7"/>
-        <v>NA</v>
-      </c>
-      <c r="P71" t="e">
+        <v>0.18055555555555558</v>
+      </c>
+      <c r="N71" t="s">
+        <v>104</v>
+      </c>
+      <c r="O71">
+        <v>222</v>
+      </c>
+      <c r="P71" t="str">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q71" t="str">
+        <v>NA</v>
+      </c>
+      <c r="Q71">
         <f t="shared" si="9"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.32432432432432434</v>
+      </c>
+      <c r="R71">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>112</v>
+      </c>
       <c r="B72" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C72">
-        <v>4737360</v>
+        <v>4117800</v>
       </c>
       <c r="D72" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E72">
-        <v>2013</v>
-      </c>
-      <c r="I72" t="str">
+        <v>2016</v>
+      </c>
+      <c r="F72" t="b">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>2834</v>
+      </c>
+      <c r="H72">
+        <v>1400</v>
+      </c>
+      <c r="I72">
         <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="J72" t="str">
+        <v>0.66934341048653756</v>
+      </c>
+      <c r="J72">
         <f t="shared" si="5"/>
-        <v>NA</v>
+        <v>0.33868682097307512</v>
       </c>
       <c r="K72">
         <v>0.5</v>
       </c>
       <c r="L72" t="str">
         <f t="shared" si="6"/>
-        <v>NA</v>
-      </c>
-      <c r="M72" t="str">
+        <v>YES</v>
+      </c>
+      <c r="M72">
         <f t="shared" si="7"/>
-        <v>NA</v>
-      </c>
-      <c r="P72" t="e">
+        <v>0.16934341048653756</v>
+      </c>
+      <c r="N72" t="s">
+        <v>104</v>
+      </c>
+      <c r="O72">
+        <v>12024</v>
+      </c>
+      <c r="P72" t="str">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q72" t="str">
+        <v>NA</v>
+      </c>
+      <c r="Q72">
         <f t="shared" si="9"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.35212907518296738</v>
+      </c>
+      <c r="R72">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>112</v>
+      </c>
       <c r="B73" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C73">
-        <v>4911435</v>
+        <v>4274744</v>
       </c>
       <c r="D73" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E73">
-        <v>2021</v>
-      </c>
-      <c r="I73" t="str">
+        <v>2017</v>
+      </c>
+      <c r="F73" t="b">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>97</v>
+      </c>
+      <c r="H73">
+        <v>6</v>
+      </c>
+      <c r="I73">
         <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="J73" t="str">
+        <v>0.94174757281553401</v>
+      </c>
+      <c r="J73">
         <f t="shared" si="5"/>
-        <v>NA</v>
+        <v>0.88349514563106801</v>
       </c>
       <c r="K73">
         <v>0.5</v>
       </c>
       <c r="L73" t="str">
         <f t="shared" si="6"/>
-        <v>NA</v>
-      </c>
-      <c r="M73" t="str">
+        <v>YES</v>
+      </c>
+      <c r="M73">
         <f t="shared" si="7"/>
-        <v>NA</v>
-      </c>
-      <c r="P73" t="e">
+        <v>0.44174757281553401</v>
+      </c>
+      <c r="N73" t="s">
+        <v>104</v>
+      </c>
+      <c r="O73">
+        <v>300</v>
+      </c>
+      <c r="P73" t="str">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q73" t="str">
+        <v>NA</v>
+      </c>
+      <c r="Q73">
         <f t="shared" si="9"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.34333333333333332</v>
+      </c>
+      <c r="R73">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>112</v>
+      </c>
       <c r="B74" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C74">
-        <v>4956750</v>
+        <v>4656420</v>
       </c>
       <c r="D74" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E74">
-        <v>2018</v>
+        <v>2014</v>
+      </c>
+      <c r="F74" t="b">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
       </c>
       <c r="I74" t="str">
         <f t="shared" si="4"/>
@@ -5484,28 +5917,49 @@
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="P74" t="e">
+      <c r="N74" t="s">
+        <v>104</v>
+      </c>
+      <c r="O74">
+        <v>15</v>
+      </c>
+      <c r="P74" t="str">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q74" t="str">
+        <v>NA</v>
+      </c>
+      <c r="Q74">
         <f t="shared" si="9"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>112</v>
+      </c>
       <c r="B75" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C75">
-        <v>5011050</v>
+        <v>4737360</v>
       </c>
       <c r="D75" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E75">
         <v>2013</v>
       </c>
+      <c r="F75" t="b">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
       <c r="I75" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
@@ -5525,177 +5979,2378 @@
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="P75" t="e">
+      <c r="N75" t="s">
+        <v>104</v>
+      </c>
+      <c r="O75">
+        <v>180</v>
+      </c>
+      <c r="P75" t="str">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q75" t="str">
+        <v>NA</v>
+      </c>
+      <c r="Q75">
         <f t="shared" si="9"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>113</v>
+      </c>
       <c r="B76" t="s">
+        <v>84</v>
+      </c>
+      <c r="C76">
+        <v>4911435</v>
+      </c>
+      <c r="D76" t="s">
+        <v>85</v>
+      </c>
+      <c r="E76">
+        <v>2020</v>
+      </c>
+      <c r="F76" t="b">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>73</v>
+      </c>
+      <c r="H76">
+        <v>12</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="4"/>
+        <v>0.85882352941176465</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="5"/>
+        <v>0.7176470588235293</v>
+      </c>
+      <c r="K76">
+        <v>0.5</v>
+      </c>
+      <c r="L76" t="str">
+        <f t="shared" si="6"/>
+        <v>YES</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="7"/>
+        <v>0.35882352941176465</v>
+      </c>
+      <c r="N76">
+        <v>109</v>
+      </c>
+      <c r="O76">
+        <v>368</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="8"/>
+        <v>0.77981651376146788</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="9"/>
+        <v>0.23097826086956522</v>
+      </c>
+      <c r="R76">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>112</v>
+      </c>
+      <c r="B77" t="s">
+        <v>84</v>
+      </c>
+      <c r="C77">
+        <v>4956750</v>
+      </c>
+      <c r="D77" t="s">
+        <v>86</v>
+      </c>
+      <c r="E77">
+        <v>2018</v>
+      </c>
+      <c r="F77" t="b">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>11</v>
+      </c>
+      <c r="H77">
+        <v>7</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="4"/>
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="5"/>
+        <v>0.22222222222222227</v>
+      </c>
+      <c r="K77">
+        <v>0.5</v>
+      </c>
+      <c r="L77" t="str">
+        <f t="shared" si="6"/>
+        <v>YES</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="7"/>
+        <v>0.11111111111111116</v>
+      </c>
+      <c r="N77">
+        <v>20</v>
+      </c>
+      <c r="O77">
+        <v>40</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="8"/>
+        <v>0.9</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="9"/>
+        <v>0.45</v>
+      </c>
+      <c r="R77">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>112</v>
+      </c>
+      <c r="B78" t="s">
+        <v>87</v>
+      </c>
+      <c r="C78">
+        <v>5011050</v>
+      </c>
+      <c r="D78" t="s">
         <v>88</v>
       </c>
-      <c r="C76">
+      <c r="E78">
+        <v>2013</v>
+      </c>
+      <c r="F78" t="b">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78" t="str">
+        <f t="shared" si="4"/>
+        <v>NA</v>
+      </c>
+      <c r="J78" t="str">
+        <f t="shared" si="5"/>
+        <v>NA</v>
+      </c>
+      <c r="K78">
+        <v>0.5</v>
+      </c>
+      <c r="L78" t="str">
+        <f t="shared" si="6"/>
+        <v>NA</v>
+      </c>
+      <c r="M78" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="N78" t="s">
+        <v>104</v>
+      </c>
+      <c r="O78">
+        <v>239</v>
+      </c>
+      <c r="P78" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>112</v>
+      </c>
+      <c r="B79" t="s">
+        <v>87</v>
+      </c>
+      <c r="C79">
         <v>5050200</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D79" t="s">
+        <v>89</v>
+      </c>
+      <c r="E79">
+        <v>2012</v>
+      </c>
+      <c r="F79" t="b">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79" t="str">
+        <f t="shared" ref="I79:I113" si="35">IF(F79 = TRUE, G79/(G79+H79), "NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="J79" t="str">
+        <f t="shared" ref="J79:J113" si="36">IF(F79 = TRUE,(G79)/(G79+H79) - (H79)/(G79+H79), "NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="K79">
+        <v>0.5</v>
+      </c>
+      <c r="L79" t="str">
+        <f t="shared" ref="L79:L113" si="37">IF(I79&lt;&gt;"NA",IF(I79&gt;K79,"YES","NO"),"NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="M79" t="str">
+        <f t="shared" ref="M79:M113" si="38">IF(F79=TRUE,I79-K79,"NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="N79" t="s">
+        <v>104</v>
+      </c>
+      <c r="O79">
+        <v>3757</v>
+      </c>
+      <c r="P79" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>112</v>
+      </c>
+      <c r="B80" t="s">
+        <v>87</v>
+      </c>
+      <c r="C80">
+        <v>5052375</v>
+      </c>
+      <c r="D80" t="s">
         <v>90</v>
       </c>
-      <c r="E76">
+      <c r="E80">
+        <v>2010</v>
+      </c>
+      <c r="F80" t="b">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80" t="str">
+        <f t="shared" si="35"/>
+        <v>NA</v>
+      </c>
+      <c r="J80" t="str">
+        <f t="shared" si="36"/>
+        <v>NA</v>
+      </c>
+      <c r="K80">
+        <v>0.5</v>
+      </c>
+      <c r="L80" t="str">
+        <f t="shared" si="37"/>
+        <v>NA</v>
+      </c>
+      <c r="M80" t="str">
+        <f t="shared" si="38"/>
+        <v>NA</v>
+      </c>
+      <c r="N80" t="s">
+        <v>104</v>
+      </c>
+      <c r="O80">
+        <v>262</v>
+      </c>
+      <c r="P80" t="str">
+        <f t="shared" ref="P80:P82" si="39">IF(N80&lt;&gt;"NA",(G80+H80)/N80, "NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>112</v>
+      </c>
+      <c r="B81" t="s">
+        <v>87</v>
+      </c>
+      <c r="C81">
+        <v>5076900</v>
+      </c>
+      <c r="D81" t="s">
+        <v>91</v>
+      </c>
+      <c r="E81">
+        <v>2017</v>
+      </c>
+      <c r="F81" t="b">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>224</v>
+      </c>
+      <c r="H81">
+        <v>83</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="35"/>
+        <v>0.72964169381107491</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="36"/>
+        <v>0.45928338762214982</v>
+      </c>
+      <c r="K81">
+        <v>0.5</v>
+      </c>
+      <c r="L81" t="str">
+        <f t="shared" si="37"/>
+        <v>YES</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="38"/>
+        <v>0.22964169381107491</v>
+      </c>
+      <c r="N81" t="s">
+        <v>104</v>
+      </c>
+      <c r="O81">
+        <v>1897</v>
+      </c>
+      <c r="P81" t="str">
+        <f t="shared" si="39"/>
+        <v>NA</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="9"/>
+        <v>0.16183447548761201</v>
+      </c>
+      <c r="R81">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>112</v>
+      </c>
+      <c r="B82" t="s">
+        <v>92</v>
+      </c>
+      <c r="C82">
+        <v>5118624</v>
+      </c>
+      <c r="D82" t="s">
+        <v>93</v>
+      </c>
+      <c r="E82">
+        <v>2017</v>
+      </c>
+      <c r="F82" t="b">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>18</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="35"/>
+        <v>0.94736842105263153</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="36"/>
+        <v>0.89473684210526305</v>
+      </c>
+      <c r="K82">
+        <v>0.5</v>
+      </c>
+      <c r="L82" t="str">
+        <f t="shared" si="37"/>
+        <v>YES</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="38"/>
+        <v>0.44736842105263153</v>
+      </c>
+      <c r="N82">
+        <v>34</v>
+      </c>
+      <c r="O82">
+        <v>83</v>
+      </c>
+      <c r="P82">
+        <f>IF(N82&lt;&gt;"NA",(G82+H82)/N82, "NA")</f>
+        <v>0.55882352941176472</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" ref="Q82:Q113" si="40">IFERROR((G82+H82)/O82, "NA")</f>
+        <v>0.2289156626506024</v>
+      </c>
+      <c r="R82">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>112</v>
+      </c>
+      <c r="B83" t="s">
+        <v>39</v>
+      </c>
+      <c r="C83" t="s">
+        <v>116</v>
+      </c>
+      <c r="D83" t="s">
+        <v>118</v>
+      </c>
+      <c r="E83">
+        <v>2010</v>
+      </c>
+      <c r="F83" t="b">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>43</v>
+      </c>
+      <c r="H83">
+        <v>402</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="35"/>
+        <v>9.662921348314607E-2</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="36"/>
+        <v>-0.80674157303370797</v>
+      </c>
+      <c r="K83">
+        <v>0.5</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="37"/>
+        <v>NO</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="38"/>
+        <v>-0.40337078651685393</v>
+      </c>
+      <c r="N83" t="s">
+        <v>104</v>
+      </c>
+      <c r="O83">
+        <v>3243</v>
+      </c>
+      <c r="P83" t="str">
+        <f>IF(N83&lt;&gt;"NA",(G83+H83)/N83, "NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="40"/>
+        <v>0.13721862473018809</v>
+      </c>
+      <c r="R83">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>112</v>
+      </c>
+      <c r="B84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C84" t="s">
+        <v>110</v>
+      </c>
+      <c r="D84" t="s">
+        <v>119</v>
+      </c>
+      <c r="E84">
+        <v>2014</v>
+      </c>
+      <c r="F84" t="b">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>19</v>
+      </c>
+      <c r="H84">
+        <v>133</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="35"/>
+        <v>0.125</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="36"/>
+        <v>-0.75</v>
+      </c>
+      <c r="K84">
+        <v>0.5</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="37"/>
+        <v>NO</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="38"/>
+        <v>-0.375</v>
+      </c>
+      <c r="N84" t="s">
+        <v>104</v>
+      </c>
+      <c r="O84">
+        <v>397</v>
+      </c>
+      <c r="P84" t="str">
+        <f>IF(N84&lt;&gt;"NA",(G84+H84)/N84, "NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="40"/>
+        <v>0.38287153652392947</v>
+      </c>
+      <c r="R84">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>112</v>
+      </c>
+      <c r="B85" t="s">
+        <v>65</v>
+      </c>
+      <c r="C85" t="s">
+        <v>110</v>
+      </c>
+      <c r="D85" t="s">
+        <v>120</v>
+      </c>
+      <c r="E85">
+        <v>2004</v>
+      </c>
+      <c r="F85" t="b">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>11</v>
+      </c>
+      <c r="H85">
+        <v>77</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="35"/>
+        <v>0.125</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="36"/>
+        <v>-0.75</v>
+      </c>
+      <c r="K85">
+        <v>0.5</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="37"/>
+        <v>NO</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="38"/>
+        <v>-0.375</v>
+      </c>
+      <c r="N85" t="s">
+        <v>104</v>
+      </c>
+      <c r="O85">
+        <v>185</v>
+      </c>
+      <c r="P85" t="str">
+        <f>IF(N85&lt;&gt;"NA",(G85+H85)/N85, "NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="40"/>
+        <v>0.4756756756756757</v>
+      </c>
+      <c r="R85">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>112</v>
+      </c>
+      <c r="B86" t="s">
+        <v>39</v>
+      </c>
+      <c r="C86" t="s">
+        <v>116</v>
+      </c>
+      <c r="D86" t="s">
+        <v>121</v>
+      </c>
+      <c r="E86">
+        <v>2013</v>
+      </c>
+      <c r="F86" t="b">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>17</v>
+      </c>
+      <c r="H86">
+        <v>106</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="35"/>
+        <v>0.13821138211382114</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="36"/>
+        <v>-0.72357723577235777</v>
+      </c>
+      <c r="K86">
+        <v>0.5</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="37"/>
+        <v>NO</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="38"/>
+        <v>-0.36178861788617889</v>
+      </c>
+      <c r="N86" t="s">
+        <v>104</v>
+      </c>
+      <c r="O86">
+        <v>354</v>
+      </c>
+      <c r="P86" t="str">
+        <f>IF(N86&lt;&gt;"NA",(G86+H86)/N86, "NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="40"/>
+        <v>0.34745762711864409</v>
+      </c>
+      <c r="R86">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>112</v>
+      </c>
+      <c r="B87" t="s">
+        <v>39</v>
+      </c>
+      <c r="C87" t="s">
+        <v>116</v>
+      </c>
+      <c r="D87" t="s">
+        <v>122</v>
+      </c>
+      <c r="E87">
+        <v>2013</v>
+      </c>
+      <c r="F87" t="b">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>48</v>
+      </c>
+      <c r="H87">
+        <v>288</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="35"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="36"/>
+        <v>-0.71428571428571419</v>
+      </c>
+      <c r="K87">
+        <v>0.5</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="37"/>
+        <v>NO</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="38"/>
+        <v>-0.35714285714285715</v>
+      </c>
+      <c r="N87" t="s">
+        <v>104</v>
+      </c>
+      <c r="O87">
+        <v>1264</v>
+      </c>
+      <c r="P87" t="str">
+        <f>IF(N87&lt;&gt;"NA",(G87+H87)/N87, "NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="40"/>
+        <v>0.26582278481012656</v>
+      </c>
+      <c r="R87">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>112</v>
+      </c>
+      <c r="B88" t="s">
+        <v>39</v>
+      </c>
+      <c r="C88" t="s">
+        <v>116</v>
+      </c>
+      <c r="D88" t="s">
+        <v>123</v>
+      </c>
+      <c r="E88">
+        <v>2010</v>
+      </c>
+      <c r="F88" t="b">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>309</v>
+      </c>
+      <c r="H88">
+        <v>1546</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="35"/>
+        <v>0.16657681940700808</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="36"/>
+        <v>-0.66684636118598384</v>
+      </c>
+      <c r="K88">
+        <v>0.5</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="37"/>
+        <v>NO</v>
+      </c>
+      <c r="M88">
+        <f t="shared" si="38"/>
+        <v>-0.33342318059299192</v>
+      </c>
+      <c r="N88" t="s">
+        <v>104</v>
+      </c>
+      <c r="O88">
+        <v>5300</v>
+      </c>
+      <c r="P88" t="str">
+        <f>IF(N88&lt;&gt;"NA",(G88+H88)/N88, "NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="40"/>
+        <v>0.35</v>
+      </c>
+      <c r="R88">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>112</v>
+      </c>
+      <c r="B89" t="s">
+        <v>39</v>
+      </c>
+      <c r="C89" t="s">
+        <v>116</v>
+      </c>
+      <c r="D89" t="s">
+        <v>124</v>
+      </c>
+      <c r="E89">
+        <v>2013</v>
+      </c>
+      <c r="F89" t="b">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>71</v>
+      </c>
+      <c r="H89">
+        <v>344</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="35"/>
+        <v>0.1710843373493976</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="36"/>
+        <v>-0.65783132530120492</v>
+      </c>
+      <c r="K89">
+        <v>0.5</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="37"/>
+        <v>NO</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="38"/>
+        <v>-0.3289156626506024</v>
+      </c>
+      <c r="N89" t="s">
+        <v>104</v>
+      </c>
+      <c r="O89">
+        <v>3543</v>
+      </c>
+      <c r="P89" t="str">
+        <f>IF(N89&lt;&gt;"NA",(G89+H89)/N89, "NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="40"/>
+        <v>0.11713237369460909</v>
+      </c>
+      <c r="R89">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>112</v>
+      </c>
+      <c r="B90" t="s">
+        <v>39</v>
+      </c>
+      <c r="C90" t="s">
+        <v>116</v>
+      </c>
+      <c r="D90" t="s">
+        <v>125</v>
+      </c>
+      <c r="E90">
+        <v>2011</v>
+      </c>
+      <c r="F90" t="b">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>73</v>
+      </c>
+      <c r="H90">
+        <v>321</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="35"/>
+        <v>0.18527918781725888</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="36"/>
+        <v>-0.62944162436548234</v>
+      </c>
+      <c r="K90">
+        <v>0.5</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="37"/>
+        <v>NO</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="38"/>
+        <v>-0.31472081218274112</v>
+      </c>
+      <c r="N90" t="s">
+        <v>104</v>
+      </c>
+      <c r="O90">
+        <v>1386</v>
+      </c>
+      <c r="P90" t="str">
+        <f>IF(N90&lt;&gt;"NA",(G90+H90)/N90, "NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="40"/>
+        <v>0.28427128427128429</v>
+      </c>
+      <c r="R90">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>112</v>
+      </c>
+      <c r="B91" t="s">
+        <v>39</v>
+      </c>
+      <c r="C91" t="s">
+        <v>116</v>
+      </c>
+      <c r="D91" t="s">
+        <v>126</v>
+      </c>
+      <c r="E91">
+        <v>2010</v>
+      </c>
+      <c r="F91" t="b">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>236</v>
+      </c>
+      <c r="H91">
+        <v>1031</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="35"/>
+        <v>0.18626677190213101</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="36"/>
+        <v>-0.62746645619573793</v>
+      </c>
+      <c r="K91">
+        <v>0.5</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="37"/>
+        <v>NO</v>
+      </c>
+      <c r="M91">
+        <f t="shared" si="38"/>
+        <v>-0.31373322809786897</v>
+      </c>
+      <c r="N91" t="s">
+        <v>104</v>
+      </c>
+      <c r="O91">
+        <v>7532</v>
+      </c>
+      <c r="P91" t="str">
+        <f>IF(N91&lt;&gt;"NA",(G91+H91)/N91, "NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="40"/>
+        <v>0.16821561338289961</v>
+      </c>
+      <c r="R91">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>112</v>
+      </c>
+      <c r="B92" t="s">
+        <v>39</v>
+      </c>
+      <c r="C92" t="s">
+        <v>116</v>
+      </c>
+      <c r="D92" t="s">
+        <v>127</v>
+      </c>
+      <c r="E92">
+        <v>2010</v>
+      </c>
+      <c r="F92" t="b">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>30</v>
+      </c>
+      <c r="H92">
+        <v>130</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="35"/>
+        <v>0.1875</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="36"/>
+        <v>-0.625</v>
+      </c>
+      <c r="K92">
+        <v>0.5</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="37"/>
+        <v>NO</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="38"/>
+        <v>-0.3125</v>
+      </c>
+      <c r="N92" t="s">
+        <v>104</v>
+      </c>
+      <c r="O92">
+        <v>371</v>
+      </c>
+      <c r="P92" t="str">
+        <f>IF(N92&lt;&gt;"NA",(G92+H92)/N92, "NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="40"/>
+        <v>0.43126684636118601</v>
+      </c>
+      <c r="R92">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>112</v>
+      </c>
+      <c r="B93" t="s">
+        <v>39</v>
+      </c>
+      <c r="C93" t="s">
+        <v>116</v>
+      </c>
+      <c r="D93" t="s">
+        <v>128</v>
+      </c>
+      <c r="E93">
+        <v>2011</v>
+      </c>
+      <c r="F93" t="b">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>366</v>
+      </c>
+      <c r="H93">
+        <v>679</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="35"/>
+        <v>0.35023923444976074</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="36"/>
+        <v>-0.29952153110047847</v>
+      </c>
+      <c r="K93">
+        <v>0.5</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="37"/>
+        <v>NO</v>
+      </c>
+      <c r="M93">
+        <f t="shared" si="38"/>
+        <v>-0.14976076555023926</v>
+      </c>
+      <c r="N93" t="s">
+        <v>104</v>
+      </c>
+      <c r="O93">
+        <v>3772</v>
+      </c>
+      <c r="P93" t="str">
+        <f>IF(N93&lt;&gt;"NA",(G93+H93)/N93, "NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="40"/>
+        <v>0.27704135737009544</v>
+      </c>
+      <c r="R93">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>112</v>
+      </c>
+      <c r="B94" t="s">
+        <v>65</v>
+      </c>
+      <c r="C94" t="s">
+        <v>110</v>
+      </c>
+      <c r="D94" t="s">
+        <v>129</v>
+      </c>
+      <c r="E94">
+        <v>2016</v>
+      </c>
+      <c r="F94" t="b">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>94</v>
+      </c>
+      <c r="H94">
+        <v>128</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="35"/>
+        <v>0.42342342342342343</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="36"/>
+        <v>-0.15315315315315314</v>
+      </c>
+      <c r="K94">
+        <v>0.5</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="37"/>
+        <v>NO</v>
+      </c>
+      <c r="M94">
+        <f t="shared" si="38"/>
+        <v>-7.6576576576576572E-2</v>
+      </c>
+      <c r="N94" t="s">
+        <v>104</v>
+      </c>
+      <c r="O94">
+        <v>790</v>
+      </c>
+      <c r="P94" t="str">
+        <f>IF(N94&lt;&gt;"NA",(G94+H94)/N94, "NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="40"/>
+        <v>0.2810126582278481</v>
+      </c>
+      <c r="R94">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>112</v>
+      </c>
+      <c r="B95" t="s">
+        <v>65</v>
+      </c>
+      <c r="C95" t="s">
+        <v>110</v>
+      </c>
+      <c r="D95" t="s">
+        <v>129</v>
+      </c>
+      <c r="E95">
+        <v>2019</v>
+      </c>
+      <c r="F95" t="b">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>99</v>
+      </c>
+      <c r="H95">
+        <v>84</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="35"/>
+        <v>0.54098360655737709</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="36"/>
+        <v>8.1967213114754134E-2</v>
+      </c>
+      <c r="K95">
+        <v>0.5</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="37"/>
+        <v>YES</v>
+      </c>
+      <c r="M95">
+        <f t="shared" si="38"/>
+        <v>4.0983606557377095E-2</v>
+      </c>
+      <c r="N95" t="s">
+        <v>104</v>
+      </c>
+      <c r="O95">
+        <v>790</v>
+      </c>
+      <c r="P95" t="str">
+        <f>IF(N95&lt;&gt;"NA",(G95+H95)/N95, "NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="40"/>
+        <v>0.23164556962025318</v>
+      </c>
+      <c r="R95">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>112</v>
+      </c>
+      <c r="B96" t="s">
+        <v>65</v>
+      </c>
+      <c r="C96" t="s">
+        <v>110</v>
+      </c>
+      <c r="D96" t="s">
+        <v>130</v>
+      </c>
+      <c r="E96">
+        <v>2003</v>
+      </c>
+      <c r="F96" t="b">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>88</v>
+      </c>
+      <c r="H96">
+        <v>309</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="35"/>
+        <v>0.22166246851385391</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="36"/>
+        <v>-0.5566750629722923</v>
+      </c>
+      <c r="K96">
+        <v>0.5</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="37"/>
+        <v>NO</v>
+      </c>
+      <c r="M96">
+        <f t="shared" si="38"/>
+        <v>-0.27833753148614609</v>
+      </c>
+      <c r="N96" t="s">
+        <v>104</v>
+      </c>
+      <c r="O96">
+        <v>603</v>
+      </c>
+      <c r="P96" t="str">
+        <f>IF(N96&lt;&gt;"NA",(G96+H96)/N96, "NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="40"/>
+        <v>0.65837479270315091</v>
+      </c>
+      <c r="R96">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>112</v>
+      </c>
+      <c r="B97" t="s">
+        <v>39</v>
+      </c>
+      <c r="C97" t="s">
+        <v>116</v>
+      </c>
+      <c r="D97" t="s">
+        <v>131</v>
+      </c>
+      <c r="E97">
+        <v>2013</v>
+      </c>
+      <c r="F97" t="b">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>59</v>
+      </c>
+      <c r="H97">
+        <v>199</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="35"/>
+        <v>0.22868217054263565</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="36"/>
+        <v>-0.54263565891472876</v>
+      </c>
+      <c r="K97">
+        <v>0.5</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="37"/>
+        <v>NO</v>
+      </c>
+      <c r="M97">
+        <f t="shared" si="38"/>
+        <v>-0.27131782945736438</v>
+      </c>
+      <c r="N97" t="s">
+        <v>104</v>
+      </c>
+      <c r="O97">
+        <v>5754</v>
+      </c>
+      <c r="P97" t="str">
+        <f>IF(N97&lt;&gt;"NA",(G97+H97)/N97, "NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="40"/>
+        <v>4.4838373305526591E-2</v>
+      </c>
+      <c r="R97">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>112</v>
+      </c>
+      <c r="B98" t="s">
+        <v>65</v>
+      </c>
+      <c r="C98" t="s">
+        <v>110</v>
+      </c>
+      <c r="D98" t="s">
+        <v>132</v>
+      </c>
+      <c r="E98">
+        <v>2004</v>
+      </c>
+      <c r="F98" t="b">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>43</v>
+      </c>
+      <c r="H98">
+        <v>136</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="35"/>
+        <v>0.24022346368715083</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="36"/>
+        <v>-0.51955307262569828</v>
+      </c>
+      <c r="K98">
+        <v>0.5</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="37"/>
+        <v>NO</v>
+      </c>
+      <c r="M98">
+        <f t="shared" si="38"/>
+        <v>-0.25977653631284914</v>
+      </c>
+      <c r="N98" t="s">
+        <v>104</v>
+      </c>
+      <c r="O98">
+        <v>386</v>
+      </c>
+      <c r="P98" t="str">
+        <f>IF(N98&lt;&gt;"NA",(G98+H98)/N98, "NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="40"/>
+        <v>0.46373056994818651</v>
+      </c>
+      <c r="R98">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>112</v>
+      </c>
+      <c r="B99" t="s">
+        <v>39</v>
+      </c>
+      <c r="C99" t="s">
+        <v>116</v>
+      </c>
+      <c r="D99" t="s">
+        <v>133</v>
+      </c>
+      <c r="E99">
+        <v>2008</v>
+      </c>
+      <c r="F99" t="b">
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <v>46</v>
+      </c>
+      <c r="H99">
+        <v>132</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="35"/>
+        <v>0.25842696629213485</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="36"/>
+        <v>-0.48314606741573035</v>
+      </c>
+      <c r="K99">
+        <v>0.5</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="37"/>
+        <v>NO</v>
+      </c>
+      <c r="M99">
+        <f t="shared" si="38"/>
+        <v>-0.24157303370786515</v>
+      </c>
+      <c r="N99" t="s">
+        <v>104</v>
+      </c>
+      <c r="O99">
+        <v>324</v>
+      </c>
+      <c r="P99" t="str">
+        <f>IF(N99&lt;&gt;"NA",(G99+H99)/N99, "NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="40"/>
+        <v>0.54938271604938271</v>
+      </c>
+      <c r="R99">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>112</v>
+      </c>
+      <c r="B100" t="s">
+        <v>65</v>
+      </c>
+      <c r="C100" t="s">
+        <v>110</v>
+      </c>
+      <c r="D100" t="s">
+        <v>136</v>
+      </c>
+      <c r="E100">
+        <v>2007</v>
+      </c>
+      <c r="F100" t="b">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>45</v>
+      </c>
+      <c r="H100">
+        <v>129</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="35"/>
+        <v>0.25862068965517243</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="36"/>
+        <v>-0.48275862068965519</v>
+      </c>
+      <c r="K100">
+        <v>0.5</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="37"/>
+        <v>NO</v>
+      </c>
+      <c r="M100">
+        <f t="shared" si="38"/>
+        <v>-0.24137931034482757</v>
+      </c>
+      <c r="N100" t="s">
+        <v>104</v>
+      </c>
+      <c r="O100">
+        <v>367</v>
+      </c>
+      <c r="P100" t="str">
+        <f>IF(N100&lt;&gt;"NA",(G100+H100)/N100, "NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="40"/>
+        <v>0.47411444141689374</v>
+      </c>
+      <c r="R100">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>112</v>
+      </c>
+      <c r="B101" t="s">
+        <v>39</v>
+      </c>
+      <c r="C101" t="s">
+        <v>116</v>
+      </c>
+      <c r="D101" t="s">
+        <v>137</v>
+      </c>
+      <c r="E101">
+        <v>2011</v>
+      </c>
+      <c r="F101" t="b">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <v>48</v>
+      </c>
+      <c r="H101">
+        <v>135</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="35"/>
+        <v>0.26229508196721313</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="36"/>
+        <v>-0.4754098360655738</v>
+      </c>
+      <c r="K101">
+        <v>0.5</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="37"/>
+        <v>NO</v>
+      </c>
+      <c r="M101">
+        <f t="shared" si="38"/>
+        <v>-0.23770491803278687</v>
+      </c>
+      <c r="N101" t="s">
+        <v>104</v>
+      </c>
+      <c r="O101">
+        <v>2200</v>
+      </c>
+      <c r="P101" t="str">
+        <f>IF(N101&lt;&gt;"NA",(G101+H101)/N101, "NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="40"/>
+        <v>8.3181818181818176E-2</v>
+      </c>
+      <c r="R101">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>112</v>
+      </c>
+      <c r="B102" t="s">
+        <v>39</v>
+      </c>
+      <c r="C102" t="s">
+        <v>116</v>
+      </c>
+      <c r="D102" t="s">
+        <v>138</v>
+      </c>
+      <c r="E102">
+        <v>2016</v>
+      </c>
+      <c r="F102" t="b">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <v>1165</v>
+      </c>
+      <c r="H102">
+        <v>3006</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="35"/>
+        <v>0.27930951810117477</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="36"/>
+        <v>-0.44138096379765046</v>
+      </c>
+      <c r="K102">
+        <v>0.5</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="37"/>
+        <v>NO</v>
+      </c>
+      <c r="M102">
+        <f t="shared" si="38"/>
+        <v>-0.22069048189882523</v>
+      </c>
+      <c r="N102" t="s">
+        <v>104</v>
+      </c>
+      <c r="O102">
+        <v>15303</v>
+      </c>
+      <c r="P102" t="str">
+        <f>IF(N102&lt;&gt;"NA",(G102+H102)/N102, "NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="40"/>
+        <v>0.27256093576422924</v>
+      </c>
+      <c r="R102">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>112</v>
+      </c>
+      <c r="B103" t="s">
+        <v>39</v>
+      </c>
+      <c r="C103" t="s">
+        <v>116</v>
+      </c>
+      <c r="D103" t="s">
+        <v>141</v>
+      </c>
+      <c r="E103">
+        <v>2017</v>
+      </c>
+      <c r="F103" t="b">
+        <v>1</v>
+      </c>
+      <c r="G103">
+        <v>353</v>
+      </c>
+      <c r="H103">
+        <v>849</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="35"/>
+        <v>0.29367720465890185</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="36"/>
+        <v>-0.41264559068219636</v>
+      </c>
+      <c r="K103">
+        <v>0.5</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="37"/>
+        <v>NO</v>
+      </c>
+      <c r="M103">
+        <f t="shared" si="38"/>
+        <v>-0.20632279534109815</v>
+      </c>
+      <c r="N103" t="s">
+        <v>104</v>
+      </c>
+      <c r="O103">
+        <v>2797</v>
+      </c>
+      <c r="P103" t="str">
+        <f>IF(N103&lt;&gt;"NA",(G103+H103)/N103, "NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="40"/>
+        <v>0.42974615659635323</v>
+      </c>
+      <c r="R103">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>112</v>
+      </c>
+      <c r="B104" t="s">
+        <v>39</v>
+      </c>
+      <c r="C104" t="s">
+        <v>116</v>
+      </c>
+      <c r="D104" t="s">
+        <v>142</v>
+      </c>
+      <c r="E104">
+        <v>2011</v>
+      </c>
+      <c r="F104" t="b">
+        <v>1</v>
+      </c>
+      <c r="G104">
+        <v>70</v>
+      </c>
+      <c r="H104">
+        <v>165</v>
+      </c>
+      <c r="I104">
+        <f t="shared" si="35"/>
+        <v>0.2978723404255319</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="36"/>
+        <v>-0.4042553191489362</v>
+      </c>
+      <c r="K104">
+        <v>0.5</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="37"/>
+        <v>NO</v>
+      </c>
+      <c r="M104">
+        <f t="shared" si="38"/>
+        <v>-0.2021276595744681</v>
+      </c>
+      <c r="N104" t="s">
+        <v>104</v>
+      </c>
+      <c r="O104">
+        <v>5305</v>
+      </c>
+      <c r="P104" t="str">
+        <f>IF(N104&lt;&gt;"NA",(G104+H104)/N104, "NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="40"/>
+        <v>4.429783223374175E-2</v>
+      </c>
+      <c r="R104">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>112</v>
+      </c>
+      <c r="B105" t="s">
+        <v>39</v>
+      </c>
+      <c r="C105" t="s">
+        <v>116</v>
+      </c>
+      <c r="D105" t="s">
+        <v>143</v>
+      </c>
+      <c r="E105">
+        <v>2010</v>
+      </c>
+      <c r="F105" t="b">
+        <v>1</v>
+      </c>
+      <c r="G105">
+        <v>74</v>
+      </c>
+      <c r="H105">
+        <v>154</v>
+      </c>
+      <c r="I105">
+        <f t="shared" si="35"/>
+        <v>0.32456140350877194</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="36"/>
+        <v>-0.35087719298245612</v>
+      </c>
+      <c r="K105">
+        <v>0.5</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="37"/>
+        <v>NO</v>
+      </c>
+      <c r="M105">
+        <f t="shared" si="38"/>
+        <v>-0.17543859649122806</v>
+      </c>
+      <c r="N105" t="s">
+        <v>104</v>
+      </c>
+      <c r="O105">
+        <v>591</v>
+      </c>
+      <c r="P105" t="str">
+        <f>IF(N105&lt;&gt;"NA",(G105+H105)/N105, "NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="40"/>
+        <v>0.38578680203045684</v>
+      </c>
+      <c r="R105">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>112</v>
+      </c>
+      <c r="B106" t="s">
+        <v>39</v>
+      </c>
+      <c r="C106" t="s">
+        <v>116</v>
+      </c>
+      <c r="D106" t="s">
+        <v>144</v>
+      </c>
+      <c r="E106">
+        <v>2011</v>
+      </c>
+      <c r="F106" t="b">
+        <v>1</v>
+      </c>
+      <c r="G106">
+        <v>334</v>
+      </c>
+      <c r="H106">
+        <v>687</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="35"/>
+        <v>0.32713026444662097</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="36"/>
+        <v>-0.34573947110675807</v>
+      </c>
+      <c r="K106">
+        <v>0.5</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="37"/>
+        <v>NO</v>
+      </c>
+      <c r="M106">
+        <f t="shared" si="38"/>
+        <v>-0.17286973555337903</v>
+      </c>
+      <c r="N106" t="s">
+        <v>104</v>
+      </c>
+      <c r="O106">
+        <v>16041</v>
+      </c>
+      <c r="P106" t="str">
+        <f>IF(N106&lt;&gt;"NA",(G106+H106)/N106, "NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="40"/>
+        <v>6.3649398416557576E-2</v>
+      </c>
+      <c r="R106">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>112</v>
+      </c>
+      <c r="B107" t="s">
+        <v>39</v>
+      </c>
+      <c r="C107" t="s">
+        <v>116</v>
+      </c>
+      <c r="D107" t="s">
+        <v>146</v>
+      </c>
+      <c r="E107">
+        <v>2012</v>
+      </c>
+      <c r="F107" t="b">
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <v>562</v>
+      </c>
+      <c r="H107">
+        <v>1117</v>
+      </c>
+      <c r="I107">
+        <f t="shared" si="35"/>
+        <v>0.33472304943418701</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="36"/>
+        <v>-0.33055390113162592</v>
+      </c>
+      <c r="K107">
+        <v>0.5</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="37"/>
+        <v>NO</v>
+      </c>
+      <c r="M107">
+        <f t="shared" si="38"/>
+        <v>-0.16527695056581299</v>
+      </c>
+      <c r="N107" t="s">
+        <v>104</v>
+      </c>
+      <c r="O107">
+        <v>5911</v>
+      </c>
+      <c r="P107" t="str">
+        <f>IF(N107&lt;&gt;"NA",(G107+H107)/N107, "NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="40"/>
+        <v>0.28404669260700388</v>
+      </c>
+      <c r="R107">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>112</v>
+      </c>
+      <c r="B108" t="s">
+        <v>65</v>
+      </c>
+      <c r="C108" t="s">
+        <v>110</v>
+      </c>
+      <c r="D108" t="s">
+        <v>147</v>
+      </c>
+      <c r="E108">
+        <v>2003</v>
+      </c>
+      <c r="F108" t="b">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108" t="str">
+        <f t="shared" si="35"/>
+        <v>NA</v>
+      </c>
+      <c r="J108" t="str">
+        <f t="shared" si="36"/>
+        <v>NA</v>
+      </c>
+      <c r="K108">
+        <v>0.5</v>
+      </c>
+      <c r="L108" t="str">
+        <f t="shared" si="37"/>
+        <v>NA</v>
+      </c>
+      <c r="M108" t="str">
+        <f t="shared" si="38"/>
+        <v>NA</v>
+      </c>
+      <c r="N108" t="s">
+        <v>104</v>
+      </c>
+      <c r="O108" t="s">
+        <v>104</v>
+      </c>
+      <c r="P108" t="str">
+        <f>IF(N108&lt;&gt;"NA",(G108+H108)/N108, "NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="Q108" t="str">
+        <f t="shared" si="40"/>
+        <v>NA</v>
+      </c>
+      <c r="R108">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>112</v>
+      </c>
+      <c r="B109" t="s">
+        <v>39</v>
+      </c>
+      <c r="C109" t="s">
+        <v>116</v>
+      </c>
+      <c r="D109" t="s">
+        <v>148</v>
+      </c>
+      <c r="E109">
+        <v>2017</v>
+      </c>
+      <c r="F109" t="b">
+        <v>1</v>
+      </c>
+      <c r="G109">
+        <v>96</v>
+      </c>
+      <c r="H109">
+        <v>179</v>
+      </c>
+      <c r="I109">
+        <f t="shared" si="35"/>
+        <v>0.34909090909090912</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="36"/>
+        <v>-0.30181818181818176</v>
+      </c>
+      <c r="K109">
+        <v>0.5</v>
+      </c>
+      <c r="L109" t="str">
+        <f t="shared" si="37"/>
+        <v>NO</v>
+      </c>
+      <c r="M109">
+        <f t="shared" si="38"/>
+        <v>-0.15090909090909088</v>
+      </c>
+      <c r="N109" t="s">
+        <v>104</v>
+      </c>
+      <c r="O109">
+        <v>666</v>
+      </c>
+      <c r="P109" t="str">
+        <f>IF(N109&lt;&gt;"NA",(G109+H109)/N109, "NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="Q109">
+        <f t="shared" si="40"/>
+        <v>0.41291291291291293</v>
+      </c>
+      <c r="R109">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>112</v>
+      </c>
+      <c r="B110" t="s">
+        <v>39</v>
+      </c>
+      <c r="C110" t="s">
+        <v>116</v>
+      </c>
+      <c r="D110" t="s">
+        <v>149</v>
+      </c>
+      <c r="E110">
         <v>2015</v>
       </c>
-      <c r="I76" t="str">
-        <f t="shared" ref="I76:I79" si="35">IF(F76 = TRUE, G76/(G76+H76), "NA")</f>
-        <v>NA</v>
-      </c>
-      <c r="J76" t="str">
-        <f t="shared" ref="J76:J79" si="36">IF(F76 = TRUE,(G76)/(G76+H76) - (H76)/(G76+H76), "NA")</f>
-        <v>NA</v>
-      </c>
-      <c r="K76">
-        <v>0.5</v>
-      </c>
-      <c r="L76" t="str">
-        <f t="shared" ref="L76:L79" si="37">IF(I76&lt;&gt;"NA",IF(I76&gt;K76,"YES","NO"),"NA")</f>
-        <v>NA</v>
-      </c>
-      <c r="M76" t="str">
-        <f t="shared" ref="M76:M79" si="38">IF(F76=TRUE,I76-K76,"NA")</f>
-        <v>NA</v>
-      </c>
-      <c r="P76" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q76" t="str">
-        <f t="shared" si="9"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>88</v>
-      </c>
-      <c r="C77">
-        <v>5052375</v>
-      </c>
-      <c r="D77" t="s">
-        <v>91</v>
-      </c>
-      <c r="E77">
+      <c r="F110" t="b">
+        <v>1</v>
+      </c>
+      <c r="G110">
+        <v>527</v>
+      </c>
+      <c r="H110">
+        <v>949</v>
+      </c>
+      <c r="I110">
+        <f t="shared" si="35"/>
+        <v>0.35704607046070463</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="36"/>
+        <v>-0.28590785907859079</v>
+      </c>
+      <c r="K110">
+        <v>0.5</v>
+      </c>
+      <c r="L110" t="str">
+        <f t="shared" si="37"/>
+        <v>NO</v>
+      </c>
+      <c r="M110">
+        <f t="shared" si="38"/>
+        <v>-0.14295392953929537</v>
+      </c>
+      <c r="N110" t="s">
+        <v>104</v>
+      </c>
+      <c r="O110">
+        <v>17234</v>
+      </c>
+      <c r="P110" t="str">
+        <f>IF(N110&lt;&gt;"NA",(G110+H110)/N110, "NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="Q110">
+        <f t="shared" si="40"/>
+        <v>8.5644655912730655E-2</v>
+      </c>
+      <c r="R110">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111" t="s">
+        <v>39</v>
+      </c>
+      <c r="C111" t="s">
+        <v>116</v>
+      </c>
+      <c r="D111" t="s">
+        <v>150</v>
+      </c>
+      <c r="E111">
         <v>2013</v>
       </c>
-      <c r="I77" t="str">
+      <c r="F111" t="b">
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <v>82</v>
+      </c>
+      <c r="H111">
+        <v>143</v>
+      </c>
+      <c r="I111">
         <f t="shared" si="35"/>
-        <v>NA</v>
-      </c>
-      <c r="J77" t="str">
+        <v>0.36444444444444446</v>
+      </c>
+      <c r="J111">
         <f t="shared" si="36"/>
-        <v>NA</v>
-      </c>
-      <c r="K77">
-        <v>0.5</v>
-      </c>
-      <c r="L77" t="str">
+        <v>-0.27111111111111108</v>
+      </c>
+      <c r="K111">
+        <v>0.5</v>
+      </c>
+      <c r="L111" t="str">
         <f t="shared" si="37"/>
-        <v>NA</v>
-      </c>
-      <c r="M77" t="str">
+        <v>NO</v>
+      </c>
+      <c r="M111">
         <f t="shared" si="38"/>
-        <v>NA</v>
-      </c>
-      <c r="P77" t="e">
-        <f t="shared" ref="P77:P79" si="39">IF(N77&lt;&gt;"NA",(G77+H77)/N77, "NA")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q77" t="str">
-        <f t="shared" si="9"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>88</v>
-      </c>
-      <c r="C78">
-        <v>5076900</v>
-      </c>
-      <c r="D78" t="s">
-        <v>92</v>
-      </c>
-      <c r="E78">
-        <v>2019</v>
-      </c>
-      <c r="I78" t="str">
+        <v>-0.13555555555555554</v>
+      </c>
+      <c r="N111" t="s">
+        <v>104</v>
+      </c>
+      <c r="O111">
+        <v>1838</v>
+      </c>
+      <c r="P111" t="str">
+        <f>IF(N111&lt;&gt;"NA",(G111+H111)/N111, "NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="Q111">
+        <f t="shared" si="40"/>
+        <v>0.12241566920565833</v>
+      </c>
+      <c r="R111">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112" t="s">
+        <v>65</v>
+      </c>
+      <c r="C112" t="s">
+        <v>110</v>
+      </c>
+      <c r="D112" t="s">
+        <v>151</v>
+      </c>
+      <c r="E112">
+        <v>2016</v>
+      </c>
+      <c r="F112" t="b">
+        <v>1</v>
+      </c>
+      <c r="G112">
+        <v>11</v>
+      </c>
+      <c r="H112">
+        <v>19</v>
+      </c>
+      <c r="I112">
         <f t="shared" si="35"/>
-        <v>NA</v>
-      </c>
-      <c r="J78" t="str">
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="J112">
         <f t="shared" si="36"/>
-        <v>NA</v>
-      </c>
-      <c r="K78">
-        <v>0.5</v>
-      </c>
-      <c r="L78" t="str">
+        <v>-0.26666666666666666</v>
+      </c>
+      <c r="K112">
+        <v>0.5</v>
+      </c>
+      <c r="L112" t="str">
         <f t="shared" si="37"/>
-        <v>NA</v>
-      </c>
-      <c r="M78" t="str">
+        <v>NO</v>
+      </c>
+      <c r="M112">
         <f t="shared" si="38"/>
-        <v>NA</v>
-      </c>
-      <c r="P78" t="e">
-        <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q78" t="str">
-        <f t="shared" si="9"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>93</v>
-      </c>
-      <c r="C79">
-        <v>5118624</v>
-      </c>
-      <c r="D79" t="s">
-        <v>94</v>
-      </c>
-      <c r="E79">
-        <v>2017</v>
-      </c>
-      <c r="I79" t="str">
+        <v>-0.13333333333333336</v>
+      </c>
+      <c r="N112" t="s">
+        <v>104</v>
+      </c>
+      <c r="O112">
+        <v>100</v>
+      </c>
+      <c r="P112" t="str">
+        <f>IF(N112&lt;&gt;"NA",(G112+H112)/N112, "NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="Q112">
+        <f t="shared" si="40"/>
+        <v>0.3</v>
+      </c>
+      <c r="R112">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>39</v>
+      </c>
+      <c r="C113" t="s">
+        <v>116</v>
+      </c>
+      <c r="D113" t="s">
+        <v>152</v>
+      </c>
+      <c r="E113">
+        <v>2012</v>
+      </c>
+      <c r="F113" t="b">
+        <v>1</v>
+      </c>
+      <c r="G113">
+        <v>209</v>
+      </c>
+      <c r="H113">
+        <v>338</v>
+      </c>
+      <c r="I113">
         <f t="shared" si="35"/>
-        <v>NA</v>
-      </c>
-      <c r="J79" t="str">
+        <v>0.38208409506398539</v>
+      </c>
+      <c r="J113">
         <f t="shared" si="36"/>
-        <v>NA</v>
-      </c>
-      <c r="K79">
-        <v>0.5</v>
-      </c>
-      <c r="L79" t="str">
+        <v>-0.23583180987202929</v>
+      </c>
+      <c r="K113">
+        <v>0.5</v>
+      </c>
+      <c r="L113" t="str">
         <f t="shared" si="37"/>
-        <v>NA</v>
-      </c>
-      <c r="M79" t="str">
+        <v>NO</v>
+      </c>
+      <c r="M113">
         <f t="shared" si="38"/>
-        <v>NA</v>
-      </c>
-      <c r="P79" t="e">
-        <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q79" t="str">
-        <f t="shared" ref="Q79" si="40">IFERROR((G79+H79)/O79, "NA")</f>
-        <v>NA</v>
+        <v>-0.11791590493601461</v>
+      </c>
+      <c r="N113" t="s">
+        <v>104</v>
+      </c>
+      <c r="O113">
+        <v>2559</v>
+      </c>
+      <c r="P113" t="str">
+        <f>IF(N113&lt;&gt;"NA",(G113+H113)/N113, "NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="Q113">
+        <f t="shared" si="40"/>
+        <v>0.21375537319265339</v>
+      </c>
+      <c r="R113">
+        <v>2012</v>
       </c>
     </row>
   </sheetData>
